--- a/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K2" t="n">
         <v>2.6</v>
@@ -765,10 +765,10 @@
         <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -777,16 +777,16 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U2" t="n">
         <v>1.53</v>
@@ -801,22 +801,22 @@
         <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
         <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
         <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
@@ -837,19 +837,19 @@
         <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
@@ -858,13 +858,13 @@
         <v>21</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS2" t="n">
         <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -873,7 +873,7 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX2" t="n">
         <v>7</v>
@@ -888,7 +888,7 @@
         <v>67</v>
       </c>
       <c r="BB2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>2.25</v>
@@ -953,10 +953,10 @@
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q3" t="n">
         <v>1.73</v>
@@ -971,10 +971,10 @@
         <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
         <v>9</v>
@@ -1001,7 +1001,7 @@
         <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -1019,10 +1019,10 @@
         <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM3" t="n">
         <v>29</v>
@@ -1037,7 +1037,7 @@
         <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1052,16 +1052,16 @@
         <v>7.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX3" t="n">
         <v>5.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
         <v>23</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1505,10 +1505,10 @@
         <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1517,13 +1517,13 @@
         <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X6" t="n">
         <v>6</v>
@@ -1565,7 +1565,7 @@
         <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="n">
         <v>51</v>
@@ -1589,13 +1589,13 @@
         <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="n">
         <v>2.38</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
@@ -1610,7 +1610,7 @@
         <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
         <v>151</v>
@@ -1845,7 +1845,7 @@
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J8" t="n">
         <v>3.6</v>
@@ -1857,22 +1857,22 @@
         <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -1890,7 +1890,7 @@
         <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
@@ -1905,7 +1905,7 @@
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1926,10 +1926,10 @@
         <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
         <v>21</v>
@@ -1938,7 +1938,7 @@
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO8" t="n">
         <v>17</v>
@@ -1974,7 +1974,7 @@
         <v>13</v>
       </c>
       <c r="AZ8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>41</v>
@@ -2042,7 +2042,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -2090,7 +2090,7 @@
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2156,7 +2156,7 @@
         <v>17</v>
       </c>
       <c r="AZ9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
         <v>51</v>
@@ -2233,10 +2233,10 @@
         <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S10" t="n">
         <v>1.4</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.25</v>
       </c>
       <c r="K12" t="n">
         <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2615,13 +2615,13 @@
         <v>1.83</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
         <v>23</v>
@@ -2636,7 +2636,7 @@
         <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
@@ -2651,7 +2651,7 @@
         <v>8.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
@@ -2660,22 +2660,22 @@
         <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
         <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>67</v>
@@ -2696,13 +2696,13 @@
         <v>81</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY12" t="n">
         <v>17</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>51</v>
@@ -2955,16 +2955,16 @@
         <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -3119,7 +3119,7 @@
         <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J15" t="n">
         <v>2.2</v>
@@ -3149,10 +3149,10 @@
         <v>2.15</v>
       </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U15" t="n">
         <v>1.75</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
         <v>51</v>
@@ -3230,7 +3230,7 @@
         <v>101</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU15" t="n">
         <v>8</v>
@@ -3295,22 +3295,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -3325,10 +3325,10 @@
         <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3337,16 +3337,16 @@
         <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
@@ -3367,7 +3367,7 @@
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
@@ -3379,7 +3379,7 @@
         <v>10</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
@@ -3388,7 +3388,7 @@
         <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
         <v>41</v>
@@ -3400,10 +3400,10 @@
         <v>11</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR16" t="n">
         <v>51</v>
@@ -3415,7 +3415,7 @@
         <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
@@ -3424,22 +3424,22 @@
         <v>81</v>
       </c>
       <c r="AX16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB16" t="n">
         <v>101</v>
       </c>
       <c r="BC16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD16" t="n">
         <v>81</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J17" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="K17" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L17" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -3501,31 +3501,31 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Q17" t="n">
         <v>1.4</v>
       </c>
       <c r="R17" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="S17" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="T17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="U17" t="n">
         <v>1.39</v>
       </c>
       <c r="V17" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="W17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X17" t="n">
         <v>13.5</v>
@@ -3534,7 +3534,7 @@
         <v>8.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
         <v>13</v>
@@ -3555,13 +3555,13 @@
         <v>29</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AH17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="n">
         <v>12</v>
@@ -3570,10 +3570,10 @@
         <v>50</v>
       </c>
       <c r="AL17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
         <v>4.45</v>
@@ -3582,43 +3582,43 @@
         <v>9.25</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR17" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS17" t="n">
         <v>100</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AU17" t="n">
         <v>6.1</v>
       </c>
       <c r="AV17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AW17" t="n">
         <v>400</v>
       </c>
       <c r="AX17" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AY17" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="BA17" t="n">
         <v>70</v>
       </c>
       <c r="BB17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BC17" t="n">
         <v>150</v>
@@ -3683,16 +3683,16 @@
         <v>8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R18" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
         <v>1.5</v>
@@ -3841,28 +3841,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3892,16 +3892,16 @@
         <v>7.5</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
         <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="n">
         <v>34</v>
@@ -3925,16 +3925,16 @@
         <v>8</v>
       </c>
       <c r="AI19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
         <v>11</v>
       </c>
       <c r="AK19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL19" t="n">
         <v>26</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>23</v>
       </c>
       <c r="AM19" t="n">
         <v>34</v>
@@ -3952,7 +3952,7 @@
         <v>51</v>
       </c>
       <c r="AR19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS19" t="n">
         <v>201</v>
@@ -3973,10 +3973,10 @@
         <v>4.75</v>
       </c>
       <c r="AY19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA19" t="n">
         <v>51</v>
@@ -4053,10 +4053,10 @@
         <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
         <v>1.33</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
@@ -4256,7 +4256,7 @@
         <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
         <v>11</v>
@@ -4265,7 +4265,7 @@
         <v>29</v>
       </c>
       <c r="AA21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB21" t="n">
         <v>41</v>
@@ -4286,7 +4286,7 @@
         <v>401</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
         <v>12</v>
@@ -4295,16 +4295,16 @@
         <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO21" t="n">
         <v>17</v>
@@ -4337,7 +4337,7 @@
         <v>4.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ21" t="n">
         <v>29</v>
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
@@ -4396,13 +4396,13 @@
         <v>2.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
         <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
@@ -4435,7 +4435,7 @@
         <v>1.91</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X22" t="n">
         <v>13</v>
@@ -4471,7 +4471,7 @@
         <v>7.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H23" t="n">
         <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J23" t="n">
         <v>2.88</v>
@@ -4584,7 +4584,7 @@
         <v>2.6</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
@@ -4605,25 +4605,25 @@
         <v>3.1</v>
       </c>
       <c r="S23" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T23" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V23" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W23" t="n">
         <v>17</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
         <v>26</v>
@@ -4644,7 +4644,7 @@
         <v>10</v>
       </c>
       <c r="AF23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
         <v>67</v>
@@ -4668,7 +4668,7 @@
         <v>19</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO23" t="n">
         <v>12</v>
@@ -4683,10 +4683,10 @@
         <v>41</v>
       </c>
       <c r="AS23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT23" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU23" t="n">
         <v>6.5</v>
@@ -4704,7 +4704,7 @@
         <v>13</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA23" t="n">
         <v>41</v>
@@ -4713,7 +4713,7 @@
         <v>41</v>
       </c>
       <c r="BC23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BD23" t="n">
         <v>151</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
@@ -4766,7 +4766,7 @@
         <v>2.4</v>
       </c>
       <c r="L24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -4799,7 +4799,7 @@
         <v>2.5</v>
       </c>
       <c r="W24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X24" t="n">
         <v>15</v>
@@ -4808,7 +4808,7 @@
         <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA24" t="n">
         <v>17</v>
@@ -4835,7 +4835,7 @@
         <v>13</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
         <v>10</v>
@@ -4850,7 +4850,7 @@
         <v>21</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO24" t="n">
         <v>13</v>
@@ -4933,16 +4933,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K25" t="n">
         <v>2.1</v>
@@ -4963,10 +4963,10 @@
         <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
         <v>1.44</v>
@@ -4984,13 +4984,13 @@
         <v>6</v>
       </c>
       <c r="X25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y25" t="n">
         <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA25" t="n">
         <v>15</v>
@@ -5020,7 +5020,7 @@
         <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK25" t="n">
         <v>67</v>
@@ -5032,16 +5032,16 @@
         <v>51</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO25" t="n">
         <v>8.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR25" t="n">
         <v>51</v>
@@ -5053,19 +5053,19 @@
         <v>2.63</v>
       </c>
       <c r="AU25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
         <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX25" t="n">
         <v>7</v>
       </c>
       <c r="AY25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ25" t="n">
         <v>41</v>
@@ -5297,16 +5297,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K27" t="n">
         <v>2.25</v>
@@ -5315,10 +5315,10 @@
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O27" t="n">
         <v>1.25</v>
@@ -5327,10 +5327,10 @@
         <v>3.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S27" t="n">
         <v>1.36</v>
@@ -5354,7 +5354,7 @@
         <v>9</v>
       </c>
       <c r="Z27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="n">
         <v>15</v>
@@ -5381,16 +5381,16 @@
         <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
         <v>41</v>
       </c>
       <c r="AL27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM27" t="n">
         <v>34</v>
@@ -5399,7 +5399,7 @@
         <v>4</v>
       </c>
       <c r="AO27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP27" t="n">
         <v>19</v>
@@ -5435,7 +5435,7 @@
         <v>26</v>
       </c>
       <c r="BA27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB27" t="n">
         <v>81</v>
@@ -5521,10 +5521,10 @@
         <v>3</v>
       </c>
       <c r="U28" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V28" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W28" t="n">
         <v>9</v>
@@ -5566,7 +5566,7 @@
         <v>17</v>
       </c>
       <c r="AJ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK28" t="n">
         <v>34</v>
@@ -5608,7 +5608,7 @@
         <v>81</v>
       </c>
       <c r="AX28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY28" t="n">
         <v>17</v>
@@ -5843,22 +5843,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K30" t="n">
         <v>2.2</v>
       </c>
       <c r="L30" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
@@ -5903,7 +5903,7 @@
         <v>17</v>
       </c>
       <c r="AA30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB30" t="n">
         <v>26</v>
@@ -5939,7 +5939,7 @@
         <v>29</v>
       </c>
       <c r="AM30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN30" t="n">
         <v>4</v>
@@ -5951,7 +5951,7 @@
         <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR30" t="n">
         <v>51</v>
@@ -6025,10 +6025,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H31" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I31" t="n">
         <v>6.5</v>
@@ -6037,7 +6037,7 @@
         <v>1.95</v>
       </c>
       <c r="K31" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L31" t="n">
         <v>7</v>
@@ -6049,10 +6049,10 @@
         <v>13</v>
       </c>
       <c r="O31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q31" t="n">
         <v>1.88</v>
@@ -6085,7 +6085,7 @@
         <v>9</v>
       </c>
       <c r="AA31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB31" t="n">
         <v>29</v>
@@ -6094,10 +6094,10 @@
         <v>11</v>
       </c>
       <c r="AD31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF31" t="n">
         <v>67</v>
@@ -6207,55 +6207,55 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I32" t="n">
         <v>7</v>
       </c>
       <c r="J32" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L32" t="n">
         <v>6.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P32" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R32" t="n">
         <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T32" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V32" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X32" t="n">
         <v>7</v>
@@ -6267,25 +6267,25 @@
         <v>10</v>
       </c>
       <c r="AA32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF32" t="n">
         <v>51</v>
       </c>
       <c r="AG32" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH32" t="n">
         <v>17</v>
@@ -6321,10 +6321,10 @@
         <v>41</v>
       </c>
       <c r="AS32" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT32" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU32" t="n">
         <v>9</v>
@@ -6351,7 +6351,7 @@
         <v>151</v>
       </c>
       <c r="BC32" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD32" t="n">
         <v>81</v>
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
         <v>2.1</v>
       </c>
       <c r="L34" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
@@ -6595,16 +6595,16 @@
         <v>11</v>
       </c>
       <c r="O34" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S34" t="n">
         <v>1.4</v>
@@ -6619,16 +6619,16 @@
         <v>2</v>
       </c>
       <c r="W34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y34" t="n">
         <v>10</v>
       </c>
       <c r="Z34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA34" t="n">
         <v>21</v>
@@ -6637,22 +6637,22 @@
         <v>29</v>
       </c>
       <c r="AC34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD34" t="n">
         <v>6.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG34" t="n">
         <v>201</v>
       </c>
       <c r="AH34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI34" t="n">
         <v>13</v>
@@ -6661,7 +6661,7 @@
         <v>10</v>
       </c>
       <c r="AK34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL34" t="n">
         <v>21</v>
@@ -6670,7 +6670,7 @@
         <v>29</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO34" t="n">
         <v>15</v>
@@ -6679,7 +6679,7 @@
         <v>23</v>
       </c>
       <c r="AQ34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR34" t="n">
         <v>67</v>
@@ -6700,7 +6700,7 @@
         <v>501</v>
       </c>
       <c r="AX34" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY34" t="n">
         <v>15</v>
@@ -6718,7 +6718,7 @@
         <v>151</v>
       </c>
       <c r="BD34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
@@ -6801,7 +6801,7 @@
         <v>1.91</v>
       </c>
       <c r="W35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X35" t="n">
         <v>7</v>
@@ -6888,7 +6888,7 @@
         <v>34</v>
       </c>
       <c r="AZ35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA35" t="n">
         <v>126</v>
@@ -6959,16 +6959,16 @@
         <v>11</v>
       </c>
       <c r="O36" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P36" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R36" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S36" t="n">
         <v>1.36</v>
@@ -7499,10 +7499,10 @@
         <v>6</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O39" t="n">
         <v>1.29</v>
@@ -7511,10 +7511,10 @@
         <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R39" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
@@ -765,10 +765,10 @@
         <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -953,16 +953,16 @@
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>1.33</v>
@@ -1120,7 +1120,7 @@
         <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K4" t="n">
         <v>2.63</v>
@@ -1153,10 +1153,10 @@
         <v>3.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W4" t="n">
         <v>9.5</v>
@@ -1219,7 +1219,7 @@
         <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR4" t="n">
         <v>34</v>
@@ -1243,7 +1243,7 @@
         <v>8</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
         <v>29</v>
@@ -1311,37 +1311,37 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>10</v>
@@ -1359,25 +1359,25 @@
         <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
         <v>12</v>
@@ -1386,7 +1386,7 @@
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
@@ -1407,13 +1407,13 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
@@ -1428,16 +1428,16 @@
         <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
         <v>81</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="n">
         <v>51</v>
@@ -1681,10 +1681,10 @@
         <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
         <v>2.88</v>
@@ -1839,55 +1839,55 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J8" t="n">
         <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
@@ -1902,25 +1902,25 @@
         <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="n">
         <v>11</v>
@@ -1932,7 +1932,7 @@
         <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
@@ -1944,7 +1944,7 @@
         <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
@@ -1953,34 +1953,34 @@
         <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
         <v>51</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC8" t="n">
         <v>201</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
@@ -2036,13 +2036,13 @@
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -2075,7 +2075,7 @@
         <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
         <v>23</v>
@@ -2090,7 +2090,7 @@
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2105,7 +2105,7 @@
         <v>8.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
         <v>11</v>
@@ -2150,7 +2150,7 @@
         <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>17</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
         <v>2.88</v>
@@ -2218,7 +2218,7 @@
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -2233,10 +2233,10 @@
         <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S10" t="n">
         <v>1.4</v>
@@ -2257,13 +2257,13 @@
         <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
         <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
         <v>29</v>
@@ -2287,10 +2287,10 @@
         <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
         <v>34</v>
@@ -2335,7 +2335,7 @@
         <v>5</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
         <v>26</v>
@@ -2347,7 +2347,7 @@
         <v>81</v>
       </c>
       <c r="BC10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD10" t="n">
         <v>126</v>
@@ -2409,10 +2409,10 @@
         <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
         <v>2.5</v>
@@ -2585,22 +2585,22 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2749,10 +2749,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
         <v>2.55</v>
@@ -2773,10 +2773,10 @@
         <v>17</v>
       </c>
       <c r="O13" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
         <v>1.53</v>
@@ -2791,13 +2791,13 @@
         <v>3.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X13" t="n">
         <v>15</v>
@@ -2815,7 +2815,7 @@
         <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD13" t="n">
         <v>7.5</v>
@@ -2842,7 +2842,7 @@
         <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>21</v>
@@ -3113,19 +3113,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K15" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -3137,16 +3137,16 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S15" t="n">
         <v>1.3</v>
@@ -3155,13 +3155,13 @@
         <v>3.4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X15" t="n">
         <v>8.5</v>
@@ -3176,10 +3176,10 @@
         <v>12</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
         <v>8</v>
@@ -3194,13 +3194,13 @@
         <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK15" t="n">
         <v>51</v>
@@ -3257,7 +3257,7 @@
         <v>101</v>
       </c>
       <c r="BC15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD15" t="n">
         <v>81</v>
@@ -3325,10 +3325,10 @@
         <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R16" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3480,7 +3480,7 @@
         <v>1.88</v>
       </c>
       <c r="H17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I17" t="n">
         <v>3.45</v>
@@ -3507,7 +3507,7 @@
         <v>5.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R17" t="n">
         <v>2.75</v>
@@ -3522,7 +3522,7 @@
         <v>1.39</v>
       </c>
       <c r="V17" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="W17" t="n">
         <v>13.5</v>
@@ -3534,7 +3534,7 @@
         <v>8.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA17" t="n">
         <v>13</v>
@@ -3558,13 +3558,13 @@
         <v>120</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK17" t="n">
         <v>50</v>
@@ -3573,7 +3573,7 @@
         <v>25</v>
       </c>
       <c r="AM17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN17" t="n">
         <v>4.45</v>
@@ -3603,22 +3603,22 @@
         <v>32</v>
       </c>
       <c r="AW17" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AX17" t="n">
         <v>6.1</v>
       </c>
       <c r="AY17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>18</v>
       </c>
       <c r="BA17" t="n">
         <v>70</v>
       </c>
       <c r="BB17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BC17" t="n">
         <v>150</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
         <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -3701,28 +3701,28 @@
         <v>2.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W18" t="n">
         <v>7</v>
       </c>
       <c r="X18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y18" t="n">
         <v>11</v>
       </c>
-      <c r="Y18" t="n">
-        <v>10</v>
-      </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA18" t="n">
         <v>23</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
         <v>8</v>
@@ -3734,25 +3734,25 @@
         <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG18" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
@@ -3761,10 +3761,10 @@
         <v>4.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
         <v>51</v>
@@ -3773,7 +3773,7 @@
         <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT18" t="n">
         <v>2.5</v>
@@ -3788,10 +3788,10 @@
         <v>81</v>
       </c>
       <c r="AX18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
         <v>29</v>
@@ -3841,16 +3841,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
@@ -3862,7 +3862,7 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3934,7 +3934,7 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM19" t="n">
         <v>34</v>
@@ -3952,7 +3952,7 @@
         <v>51</v>
       </c>
       <c r="AR19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS19" t="n">
         <v>201</v>
@@ -4038,13 +4038,13 @@
         <v>2.25</v>
       </c>
       <c r="L20" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O20" t="n">
         <v>1.22</v>
@@ -4059,10 +4059,10 @@
         <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T20" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
         <v>1.62</v>
@@ -4089,7 +4089,7 @@
         <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
         <v>7</v>
@@ -4113,13 +4113,13 @@
         <v>9.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
         <v>17</v>
       </c>
       <c r="AM20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN20" t="n">
         <v>5</v>
@@ -4128,7 +4128,7 @@
         <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
         <v>51</v>
@@ -4140,7 +4140,7 @@
         <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU20" t="n">
         <v>7.5</v>
@@ -4155,7 +4155,7 @@
         <v>4.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ20" t="n">
         <v>21</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
@@ -4256,7 +4256,7 @@
         <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
         <v>11</v>
@@ -4286,7 +4286,7 @@
         <v>401</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI21" t="n">
         <v>12</v>
@@ -4295,7 +4295,7 @@
         <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
         <v>23</v>
@@ -4304,7 +4304,7 @@
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO21" t="n">
         <v>17</v>
@@ -4337,7 +4337,7 @@
         <v>4.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ21" t="n">
         <v>29</v>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J22" t="n">
         <v>3.6</v>
@@ -4402,13 +4402,13 @@
         <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -4429,34 +4429,34 @@
         <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4465,7 +4465,7 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH22" t="n">
         <v>7.5</v>
@@ -4492,7 +4492,7 @@
         <v>17</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ22" t="n">
         <v>51</v>
@@ -4516,10 +4516,10 @@
         <v>81</v>
       </c>
       <c r="AX22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ22" t="n">
         <v>26</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
         <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J23" t="n">
         <v>2.88</v>
@@ -4626,7 +4626,7 @@
         <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA23" t="n">
         <v>17</v>
@@ -4659,7 +4659,7 @@
         <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL23" t="n">
         <v>17</v>
@@ -4671,13 +4671,13 @@
         <v>5.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
         <v>15</v>
       </c>
       <c r="AQ23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR23" t="n">
         <v>41</v>
@@ -4701,13 +4701,13 @@
         <v>5.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ23" t="n">
         <v>15</v>
       </c>
       <c r="BA23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB23" t="n">
         <v>41</v>
@@ -4933,19 +4933,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L25" t="n">
         <v>6</v>
@@ -4957,16 +4957,16 @@
         <v>8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
         <v>1.44</v>
@@ -4984,13 +4984,13 @@
         <v>6</v>
       </c>
       <c r="X25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA25" t="n">
         <v>15</v>
@@ -5020,7 +5020,7 @@
         <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK25" t="n">
         <v>67</v>
@@ -5032,16 +5032,16 @@
         <v>51</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR25" t="n">
         <v>51</v>
@@ -5053,7 +5053,7 @@
         <v>2.63</v>
       </c>
       <c r="AU25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV25" t="n">
         <v>67</v>
@@ -5062,10 +5062,10 @@
         <v>126</v>
       </c>
       <c r="AX25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ25" t="n">
         <v>41</v>
@@ -5297,16 +5297,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="n">
         <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J27" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K27" t="n">
         <v>2.25</v>
@@ -5318,7 +5318,7 @@
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O27" t="n">
         <v>1.25</v>
@@ -5354,7 +5354,7 @@
         <v>9</v>
       </c>
       <c r="Z27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA27" t="n">
         <v>15</v>
@@ -5381,16 +5381,16 @@
         <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK27" t="n">
         <v>41</v>
       </c>
       <c r="AL27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM27" t="n">
         <v>34</v>
@@ -5399,7 +5399,7 @@
         <v>4</v>
       </c>
       <c r="AO27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP27" t="n">
         <v>19</v>
@@ -5435,7 +5435,7 @@
         <v>26</v>
       </c>
       <c r="BA27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB27" t="n">
         <v>81</v>
@@ -5479,7 +5479,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
         <v>3.4</v>
@@ -5494,7 +5494,7 @@
         <v>2.25</v>
       </c>
       <c r="L28" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -5536,7 +5536,7 @@
         <v>9</v>
       </c>
       <c r="Z28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="n">
         <v>17</v>
@@ -5566,7 +5566,7 @@
         <v>17</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK28" t="n">
         <v>34</v>
@@ -5581,7 +5581,7 @@
         <v>4.33</v>
       </c>
       <c r="AO28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
@@ -5608,7 +5608,7 @@
         <v>81</v>
       </c>
       <c r="AX28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY28" t="n">
         <v>17</v>
@@ -5843,22 +5843,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J30" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K30" t="n">
         <v>2.2</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
@@ -5873,10 +5873,10 @@
         <v>3.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R30" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S30" t="n">
         <v>1.4</v>
@@ -5894,7 +5894,7 @@
         <v>7.5</v>
       </c>
       <c r="X30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -5903,7 +5903,7 @@
         <v>17</v>
       </c>
       <c r="AA30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB30" t="n">
         <v>26</v>
@@ -5939,7 +5939,7 @@
         <v>29</v>
       </c>
       <c r="AM30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="n">
         <v>4</v>
@@ -5951,7 +5951,7 @@
         <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR30" t="n">
         <v>51</v>
@@ -6043,22 +6043,22 @@
         <v>7</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P31" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R31" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S31" t="n">
         <v>1.36</v>
@@ -6207,19 +6207,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H32" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K32" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L32" t="n">
         <v>6.5</v>
@@ -6228,7 +6228,7 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O32" t="n">
         <v>1.22</v>
@@ -6237,10 +6237,10 @@
         <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S32" t="n">
         <v>1.33</v>
@@ -6249,10 +6249,10 @@
         <v>3.25</v>
       </c>
       <c r="U32" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W32" t="n">
         <v>7</v>
@@ -6273,7 +6273,7 @@
         <v>26</v>
       </c>
       <c r="AC32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD32" t="n">
         <v>8</v>
@@ -6288,10 +6288,10 @@
         <v>301</v>
       </c>
       <c r="AH32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ32" t="n">
         <v>21</v>
@@ -6309,7 +6309,7 @@
         <v>3.4</v>
       </c>
       <c r="AO32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP32" t="n">
         <v>19</v>
@@ -6327,7 +6327,7 @@
         <v>3.25</v>
       </c>
       <c r="AU32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV32" t="n">
         <v>51</v>
@@ -6336,7 +6336,7 @@
         <v>81</v>
       </c>
       <c r="AX32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY32" t="n">
         <v>34</v>
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
@@ -6595,16 +6595,16 @@
         <v>11</v>
       </c>
       <c r="O34" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="R34" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S34" t="n">
         <v>1.4</v>
@@ -6637,31 +6637,31 @@
         <v>29</v>
       </c>
       <c r="AC34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD34" t="n">
         <v>6.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG34" t="n">
         <v>201</v>
       </c>
       <c r="AH34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ34" t="n">
         <v>10</v>
       </c>
       <c r="AK34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL34" t="n">
         <v>21</v>
@@ -6703,13 +6703,13 @@
         <v>4.5</v>
       </c>
       <c r="AY34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ34" t="n">
         <v>23</v>
       </c>
       <c r="BA34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB34" t="n">
         <v>67</v>
@@ -6718,7 +6718,7 @@
         <v>151</v>
       </c>
       <c r="BD34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
@@ -6938,10 +6938,10 @@
         <v>2.1</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J36" t="n">
         <v>2.75</v>
@@ -6965,28 +6965,28 @@
         <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R36" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S36" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T36" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V36" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y36" t="n">
         <v>9</v>
@@ -6998,10 +6998,10 @@
         <v>17</v>
       </c>
       <c r="AB36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD36" t="n">
         <v>6.5</v>
@@ -7013,10 +7013,10 @@
         <v>41</v>
       </c>
       <c r="AG36" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI36" t="n">
         <v>17</v>
@@ -7031,13 +7031,13 @@
         <v>26</v>
       </c>
       <c r="AM36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN36" t="n">
         <v>4.33</v>
       </c>
       <c r="AO36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP36" t="n">
         <v>21</v>
@@ -7049,13 +7049,13 @@
         <v>51</v>
       </c>
       <c r="AS36" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT36" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV36" t="n">
         <v>51</v>
@@ -7067,16 +7067,16 @@
         <v>5.5</v>
       </c>
       <c r="AY36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA36" t="n">
         <v>51</v>
       </c>
       <c r="BB36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC36" t="n">
         <v>151</v>
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I37" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="J37" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K37" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L37" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
@@ -7165,10 +7165,10 @@
         <v>2.25</v>
       </c>
       <c r="W37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y37" t="n">
         <v>15</v>
@@ -7183,7 +7183,7 @@
         <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD37" t="n">
         <v>8</v>
@@ -7207,7 +7207,7 @@
         <v>8.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL37" t="n">
         <v>12</v>
@@ -7216,10 +7216,10 @@
         <v>21</v>
       </c>
       <c r="AN37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP37" t="n">
         <v>26</v>
@@ -7249,13 +7249,13 @@
         <v>4</v>
       </c>
       <c r="AY37" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB37" t="n">
         <v>41</v>
@@ -7663,40 +7663,40 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="H40" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
         <v>3.15</v>
       </c>
       <c r="J40" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="K40" t="n">
         <v>2.02</v>
       </c>
       <c r="L40" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>9.050000000000001</v>
+        <v>8.85</v>
       </c>
       <c r="O40" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P40" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R40" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S40" t="n">
         <v>1.42</v>
@@ -7711,7 +7711,7 @@
         <v>1.82</v>
       </c>
       <c r="W40" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X40" t="n">
         <v>10.75</v>
@@ -7723,13 +7723,13 @@
         <v>23</v>
       </c>
       <c r="AA40" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC40" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD40" t="n">
         <v>5.9</v>
@@ -7741,10 +7741,10 @@
         <v>75</v>
       </c>
       <c r="AG40" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH40" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI40" t="n">
         <v>15.5</v>
@@ -7765,16 +7765,16 @@
         <v>4.1</v>
       </c>
       <c r="AO40" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AP40" t="n">
         <v>19.5</v>
       </c>
       <c r="AQ40" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR40" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS40" t="n">
         <v>250</v>
@@ -7783,7 +7783,7 @@
         <v>2.45</v>
       </c>
       <c r="AU40" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV40" t="n">
         <v>60</v>
@@ -7798,7 +7798,7 @@
         <v>17.5</v>
       </c>
       <c r="AZ40" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA40" t="n">
         <v>90</v>
@@ -7807,7 +7807,7 @@
         <v>120</v>
       </c>
       <c r="BC40" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD40" t="n">
         <v>81</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H41" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I41" t="n">
         <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K41" t="n">
         <v>2.1</v>
@@ -7863,10 +7863,10 @@
         <v>5.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O41" t="n">
         <v>1.36</v>
@@ -7902,7 +7902,7 @@
         <v>9</v>
       </c>
       <c r="Z41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA41" t="n">
         <v>15</v>
@@ -7914,7 +7914,7 @@
         <v>8.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE41" t="n">
         <v>21</v>
@@ -7974,7 +7974,7 @@
         <v>51</v>
       </c>
       <c r="AX41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY41" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
@@ -756,13 +756,13 @@
         <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -777,16 +777,16 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
         <v>1.53</v>
@@ -831,7 +831,7 @@
         <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ2" t="n">
         <v>19</v>
@@ -843,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
@@ -864,7 +864,7 @@
         <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -876,19 +876,19 @@
         <v>301</v>
       </c>
       <c r="AX2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY2" t="n">
         <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -959,10 +959,10 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
         <v>1.33</v>
@@ -1493,10 +1493,10 @@
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1541,7 +1541,7 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
         <v>7.5</v>
@@ -1613,7 +1613,7 @@
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="n">
         <v>251</v>
@@ -1681,10 +1681,10 @@
         <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q7" t="n">
         <v>2.88</v>
@@ -1845,22 +1845,22 @@
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J8" t="n">
         <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1869,10 +1869,10 @@
         <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -1902,7 +1902,7 @@
         <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
@@ -1911,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1920,7 +1920,7 @@
         <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI8" t="n">
         <v>11</v>
@@ -1932,7 +1932,7 @@
         <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
@@ -1953,7 +1953,7 @@
         <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
         <v>2.5</v>
@@ -1962,7 +1962,7 @@
         <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
         <v>51</v>
@@ -1980,7 +1980,7 @@
         <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC8" t="n">
         <v>201</v>
@@ -2021,151 +2021,151 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
         <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
         <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
         <v>29</v>
       </c>
-      <c r="AL9" t="n">
-        <v>26</v>
-      </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
         <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
         <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
       </c>
       <c r="AW9" t="n">
         <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ9" t="n">
         <v>29</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD9" t="n">
         <v>126</v>
@@ -2206,10 +2206,10 @@
         <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
         <v>2.88</v>
@@ -2218,61 +2218,61 @@
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
         <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2281,13 +2281,13 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
         <v>12</v>
@@ -2296,31 +2296,31 @@
         <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
         <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -2338,10 +2338,10 @@
         <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
         <v>81</v>
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2615,16 +2615,16 @@
         <v>1.83</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA12" t="n">
         <v>21</v>
@@ -2633,10 +2633,10 @@
         <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
@@ -2645,37 +2645,37 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
         <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
         <v>67</v>
@@ -2696,19 +2696,19 @@
         <v>81</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA12" t="n">
         <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC12" t="n">
         <v>201</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K15" t="n">
         <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -3182,7 +3182,7 @@
         <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -3215,13 +3215,13 @@
         <v>3.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
@@ -3325,10 +3325,10 @@
         <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>3.9</v>
       </c>
       <c r="I17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
         <v>2.32</v>
@@ -3507,7 +3507,7 @@
         <v>5.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R17" t="n">
         <v>2.75</v>
@@ -3528,13 +3528,13 @@
         <v>13.5</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="n">
         <v>8.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
         <v>13</v>
@@ -3552,19 +3552,19 @@
         <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG17" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AH17" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
         <v>50</v>
@@ -3573,10 +3573,10 @@
         <v>25</v>
       </c>
       <c r="AM17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AO17" t="n">
         <v>9.25</v>
@@ -3603,22 +3603,22 @@
         <v>32</v>
       </c>
       <c r="AW17" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AX17" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AY17" t="n">
         <v>17</v>
       </c>
       <c r="AZ17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="BA17" t="n">
         <v>70</v>
       </c>
       <c r="BB17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BC17" t="n">
         <v>150</v>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
@@ -3668,31 +3668,31 @@
         <v>2.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L18" t="n">
         <v>3.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="S18" t="n">
         <v>1.5</v>
@@ -3701,31 +3701,31 @@
         <v>2.5</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
         <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA18" t="n">
         <v>23</v>
       </c>
       <c r="AB18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
@@ -3734,13 +3734,13 @@
         <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
@@ -3755,16 +3755,16 @@
         <v>23</v>
       </c>
       <c r="AM18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN18" t="n">
         <v>4.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
         <v>51</v>
@@ -3773,7 +3773,7 @@
         <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT18" t="n">
         <v>2.5</v>
@@ -3782,7 +3782,7 @@
         <v>8.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
         <v>81</v>
@@ -3794,7 +3794,7 @@
         <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA18" t="n">
         <v>51</v>
@@ -3803,7 +3803,7 @@
         <v>81</v>
       </c>
       <c r="BC18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
@@ -3865,16 +3865,16 @@
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
         <v>1.5</v>
@@ -3892,22 +3892,22 @@
         <v>7.5</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
         <v>10</v>
       </c>
       <c r="Z19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA19" t="n">
         <v>23</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>21</v>
       </c>
       <c r="AB19" t="n">
         <v>34</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
@@ -3922,7 +3922,7 @@
         <v>351</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI19" t="n">
         <v>13</v>
@@ -3964,7 +3964,7 @@
         <v>8.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW19" t="n">
         <v>51</v>
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
@@ -4032,10 +4032,10 @@
         <v>2.25</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L20" t="n">
         <v>3</v>
@@ -4047,16 +4047,16 @@
         <v>12</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S20" t="n">
         <v>1.36</v>
@@ -4065,13 +4065,13 @@
         <v>3</v>
       </c>
       <c r="U20" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X20" t="n">
         <v>15</v>
@@ -4104,7 +4104,7 @@
         <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI20" t="n">
         <v>12</v>
@@ -4113,7 +4113,7 @@
         <v>9.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
         <v>17</v>
@@ -4587,10 +4587,10 @@
         <v>2.88</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O23" t="n">
         <v>1.1</v>
@@ -4775,10 +4775,10 @@
         <v>17</v>
       </c>
       <c r="O24" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q24" t="n">
         <v>1.53</v>
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H25" t="n">
         <v>3.6</v>
@@ -4945,7 +4945,7 @@
         <v>2.2</v>
       </c>
       <c r="K25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L25" t="n">
         <v>6</v>
@@ -4957,10 +4957,10 @@
         <v>8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
         <v>2.1</v>
@@ -4987,7 +4987,7 @@
         <v>6.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z25" t="n">
         <v>11</v>
@@ -5035,7 +5035,7 @@
         <v>3.4</v>
       </c>
       <c r="AO25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP25" t="n">
         <v>21</v>
@@ -5062,7 +5062,7 @@
         <v>126</v>
       </c>
       <c r="AX25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY25" t="n">
         <v>34</v>
@@ -5115,22 +5115,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
         <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K26" t="n">
         <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -5166,7 +5166,7 @@
         <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y26" t="n">
         <v>8.5</v>
@@ -5175,7 +5175,7 @@
         <v>13</v>
       </c>
       <c r="AA26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB26" t="n">
         <v>26</v>
@@ -5196,7 +5196,7 @@
         <v>251</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>23</v>
@@ -5208,7 +5208,7 @@
         <v>51</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="n">
         <v>41</v>
@@ -5220,7 +5220,7 @@
         <v>9</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
         <v>29</v>
@@ -5247,10 +5247,10 @@
         <v>6.5</v>
       </c>
       <c r="AY26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA26" t="n">
         <v>81</v>
@@ -5303,7 +5303,7 @@
         <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J27" t="n">
         <v>2.6</v>
@@ -5321,22 +5321,22 @@
         <v>12</v>
       </c>
       <c r="O27" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R27" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T27" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U27" t="n">
         <v>1.67</v>
@@ -5366,7 +5366,7 @@
         <v>12</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>13</v>
@@ -5381,7 +5381,7 @@
         <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
         <v>13</v>
@@ -5390,7 +5390,7 @@
         <v>41</v>
       </c>
       <c r="AL27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM27" t="n">
         <v>34</v>
@@ -5399,7 +5399,7 @@
         <v>4</v>
       </c>
       <c r="AO27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP27" t="n">
         <v>19</v>
@@ -5414,7 +5414,7 @@
         <v>126</v>
       </c>
       <c r="AT27" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU27" t="n">
         <v>7.5</v>
@@ -5435,7 +5435,7 @@
         <v>26</v>
       </c>
       <c r="BA27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB27" t="n">
         <v>81</v>
@@ -5479,7 +5479,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H28" t="n">
         <v>3.4</v>
@@ -5494,13 +5494,13 @@
         <v>2.25</v>
       </c>
       <c r="L28" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O28" t="n">
         <v>1.25</v>
@@ -5536,7 +5536,7 @@
         <v>9</v>
       </c>
       <c r="Z28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA28" t="n">
         <v>17</v>
@@ -5566,7 +5566,7 @@
         <v>17</v>
       </c>
       <c r="AJ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK28" t="n">
         <v>34</v>
@@ -5581,7 +5581,7 @@
         <v>4.33</v>
       </c>
       <c r="AO28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
@@ -5608,7 +5608,7 @@
         <v>81</v>
       </c>
       <c r="AX28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY28" t="n">
         <v>17</v>
@@ -5661,28 +5661,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J29" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K29" t="n">
         <v>2.2</v>
       </c>
       <c r="L29" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
         <v>1.29</v>
@@ -5691,10 +5691,10 @@
         <v>3.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S29" t="n">
         <v>1.4</v>
@@ -5703,10 +5703,10 @@
         <v>2.75</v>
       </c>
       <c r="U29" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W29" t="n">
         <v>7.5</v>
@@ -5715,19 +5715,19 @@
         <v>9.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z29" t="n">
         <v>17</v>
       </c>
       <c r="AA29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB29" t="n">
         <v>26</v>
       </c>
       <c r="AC29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
         <v>6.5</v>
@@ -5739,13 +5739,13 @@
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
         <v>13</v>
@@ -5763,13 +5763,13 @@
         <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP29" t="n">
         <v>21</v>
       </c>
       <c r="AQ29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR29" t="n">
         <v>51</v>
@@ -5873,10 +5873,10 @@
         <v>3.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S30" t="n">
         <v>1.4</v>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H32" t="n">
         <v>4.2</v>
@@ -6228,7 +6228,7 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O32" t="n">
         <v>1.22</v>
@@ -6237,10 +6237,10 @@
         <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S32" t="n">
         <v>1.33</v>
@@ -6255,7 +6255,7 @@
         <v>1.83</v>
       </c>
       <c r="W32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X32" t="n">
         <v>7</v>
@@ -6264,7 +6264,7 @@
         <v>8.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA32" t="n">
         <v>12</v>
@@ -6312,7 +6312,7 @@
         <v>7</v>
       </c>
       <c r="AP32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ32" t="n">
         <v>21</v>
@@ -6327,7 +6327,7 @@
         <v>3.25</v>
       </c>
       <c r="AU32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV32" t="n">
         <v>51</v>
@@ -6395,22 +6395,22 @@
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J33" t="n">
         <v>2.75</v>
       </c>
       <c r="K33" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L33" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O33" t="n">
         <v>1.17</v>
@@ -6419,10 +6419,10 @@
         <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R33" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S33" t="n">
         <v>1.29</v>
@@ -6431,19 +6431,19 @@
         <v>3.5</v>
       </c>
       <c r="U33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V33" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X33" t="n">
         <v>13</v>
       </c>
       <c r="Y33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z33" t="n">
         <v>21</v>
@@ -6455,28 +6455,28 @@
         <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD33" t="n">
         <v>8</v>
       </c>
       <c r="AE33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH33" t="n">
         <v>13</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>12</v>
       </c>
       <c r="AI33" t="n">
         <v>17</v>
       </c>
       <c r="AJ33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK33" t="n">
         <v>29</v>
@@ -6488,19 +6488,19 @@
         <v>23</v>
       </c>
       <c r="AN33" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO33" t="n">
         <v>12</v>
       </c>
       <c r="AP33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ33" t="n">
         <v>41</v>
       </c>
       <c r="AR33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS33" t="n">
         <v>101</v>
@@ -6515,16 +6515,16 @@
         <v>41</v>
       </c>
       <c r="AW33" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY33" t="n">
         <v>15</v>
       </c>
       <c r="AZ33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA33" t="n">
         <v>41</v>
@@ -6965,10 +6965,10 @@
         <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S36" t="n">
         <v>1.4</v>
@@ -7481,16 +7481,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H39" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I39" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K39" t="n">
         <v>2.25</v>
@@ -7499,10 +7499,10 @@
         <v>6</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O39" t="n">
         <v>1.29</v>
@@ -7523,10 +7523,10 @@
         <v>2.75</v>
       </c>
       <c r="U39" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W39" t="n">
         <v>6.5</v>
@@ -7571,13 +7571,13 @@
         <v>19</v>
       </c>
       <c r="AK39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL39" t="n">
         <v>41</v>
       </c>
       <c r="AM39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN39" t="n">
         <v>3.5</v>
@@ -7589,7 +7589,7 @@
         <v>21</v>
       </c>
       <c r="AQ39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR39" t="n">
         <v>51</v>
@@ -7601,7 +7601,7 @@
         <v>2.75</v>
       </c>
       <c r="AU39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV39" t="n">
         <v>51</v>
@@ -7613,16 +7613,16 @@
         <v>7</v>
       </c>
       <c r="AY39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA39" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB39" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC39" t="n">
         <v>301</v>
@@ -7663,22 +7663,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I40" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="K40" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M40" t="n">
         <v>1.05</v>
@@ -7687,13 +7687,13 @@
         <v>8.85</v>
       </c>
       <c r="O40" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P40" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R40" t="n">
         <v>1.6</v>
@@ -7711,76 +7711,76 @@
         <v>1.82</v>
       </c>
       <c r="W40" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="X40" t="n">
         <v>10.75</v>
       </c>
       <c r="Y40" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z40" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA40" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AB40" t="n">
         <v>32</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD40" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE40" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF40" t="n">
         <v>75</v>
       </c>
       <c r="AG40" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH40" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI40" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ40" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AK40" t="n">
         <v>40</v>
       </c>
       <c r="AL40" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM40" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN40" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AO40" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AQ40" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR40" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS40" t="n">
         <v>250</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="AU40" t="n">
         <v>6.8</v>
@@ -7792,19 +7792,19 @@
         <v>81</v>
       </c>
       <c r="AX40" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AY40" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AZ40" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA40" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB40" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BC40" t="n">
         <v>300</v>
@@ -7845,55 +7845,55 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I41" t="n">
         <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K41" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L41" t="n">
+        <v>6</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N41" t="n">
+        <v>8</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W41" t="n">
         <v>5.5</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N41" t="n">
-        <v>10</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W41" t="n">
-        <v>6</v>
       </c>
       <c r="X41" t="n">
         <v>7</v>
@@ -7902,31 +7902,31 @@
         <v>9</v>
       </c>
       <c r="Z41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB41" t="n">
         <v>34</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE41" t="n">
         <v>21</v>
       </c>
       <c r="AF41" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG41" t="n">
         <v>201</v>
       </c>
       <c r="AH41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI41" t="n">
         <v>23</v>
@@ -7947,34 +7947,34 @@
         <v>3.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP41" t="n">
         <v>23</v>
       </c>
       <c r="AQ41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS41" t="n">
         <v>201</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV41" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW41" t="n">
         <v>51</v>
       </c>
       <c r="AX41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY41" t="n">
         <v>29</v>
@@ -7983,7 +7983,7 @@
         <v>41</v>
       </c>
       <c r="BA41" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB41" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD41"/>
+  <dimension ref="A1:BD42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L2" t="n">
         <v>5.5</v>
       </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5</v>
-      </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -777,34 +777,34 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
         <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
@@ -813,10 +813,10 @@
         <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
@@ -825,19 +825,19 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -846,16 +846,16 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
         <v>34</v>
@@ -864,7 +864,7 @@
         <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -873,13 +873,13 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX2" t="n">
         <v>7.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
         <v>26</v>
@@ -891,7 +891,7 @@
         <v>81</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
         <v>160</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
         <v>2.25</v>
@@ -953,10 +953,10 @@
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q3" t="n">
         <v>1.73</v>
@@ -971,10 +971,10 @@
         <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
         <v>9</v>
@@ -1001,7 +1001,7 @@
         <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -1019,10 +1019,10 @@
         <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
         <v>29</v>
@@ -1037,7 +1037,7 @@
         <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1052,16 +1052,16 @@
         <v>7.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX3" t="n">
         <v>5.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ3" t="n">
         <v>23</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1517,10 +1517,10 @@
         <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
         <v>4.75</v>
@@ -1541,7 +1541,7 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
         <v>7.5</v>
@@ -1565,7 +1565,7 @@
         <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL6" t="n">
         <v>51</v>
@@ -1589,7 +1589,7 @@
         <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
         <v>2.38</v>
@@ -1610,10 +1610,10 @@
         <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
         <v>251</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
@@ -1851,16 +1851,16 @@
         <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1869,10 +1869,10 @@
         <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -1902,7 +1902,7 @@
         <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
@@ -1911,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1920,7 +1920,7 @@
         <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="n">
         <v>11</v>
@@ -1953,7 +1953,7 @@
         <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
         <v>2.5</v>
@@ -1962,13 +1962,13 @@
         <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
         <v>51</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY8" t="n">
         <v>15</v>
@@ -1980,7 +1980,7 @@
         <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC8" t="n">
         <v>201</v>
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
@@ -2039,10 +2039,10 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -2087,7 +2087,7 @@
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2111,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
         <v>29</v>
@@ -2141,7 +2141,7 @@
         <v>2.38</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
@@ -2159,7 +2159,7 @@
         <v>29</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
         <v>101</v>
@@ -2233,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
         <v>1.95</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -2421,10 +2421,10 @@
         <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U11" t="n">
         <v>2.1</v>
@@ -2457,7 +2457,7 @@
         <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>67</v>
@@ -2469,7 +2469,7 @@
         <v>8</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
@@ -2493,7 +2493,7 @@
         <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
         <v>81</v>
@@ -2502,7 +2502,7 @@
         <v>251</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU11" t="n">
         <v>9</v>
@@ -2523,13 +2523,13 @@
         <v>34</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD11" t="n">
         <v>126</v>
@@ -2567,19 +2567,19 @@
         </is>
       </c>
       <c r="G12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.55</v>
       </c>
-      <c r="H12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.63</v>
-      </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
         <v>3.4</v>
@@ -2597,10 +2597,10 @@
         <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2618,22 +2618,22 @@
         <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
         <v>26</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB12" t="n">
         <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
@@ -2645,13 +2645,13 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH12" t="n">
         <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
@@ -2660,13 +2660,13 @@
         <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
         <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
@@ -2678,7 +2678,7 @@
         <v>51</v>
       </c>
       <c r="AR12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS12" t="n">
         <v>201</v>
@@ -2696,7 +2696,7 @@
         <v>81</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY12" t="n">
         <v>15</v>
@@ -2779,10 +2779,10 @@
         <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S13" t="n">
         <v>1.29</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K15" t="n">
         <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -3182,7 +3182,7 @@
         <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -3191,7 +3191,7 @@
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH15" t="n">
         <v>17</v>
@@ -3215,13 +3215,13 @@
         <v>3.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
@@ -3325,10 +3325,10 @@
         <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R16" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3477,19 +3477,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="K17" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="L17" t="n">
         <v>3.65</v>
@@ -3507,37 +3507,37 @@
         <v>5.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R17" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="S17" t="n">
         <v>1.23</v>
       </c>
       <c r="T17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="U17" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V17" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="W17" t="n">
         <v>13.5</v>
       </c>
       <c r="X17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
         <v>8.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB17" t="n">
         <v>16</v>
@@ -3546,10 +3546,10 @@
         <v>10</v>
       </c>
       <c r="AD17" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF17" t="n">
         <v>30</v>
@@ -3558,16 +3558,16 @@
         <v>150</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
         <v>25</v>
@@ -3576,16 +3576,16 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AP17" t="n">
         <v>12.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR17" t="n">
         <v>37</v>
@@ -3594,31 +3594,31 @@
         <v>100</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AV17" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AW17" t="n">
         <v>400</v>
       </c>
       <c r="AX17" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AY17" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BA17" t="n">
         <v>70</v>
       </c>
       <c r="BB17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BC17" t="n">
         <v>150</v>
@@ -3677,22 +3677,22 @@
         <v>3.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
         <v>1.5</v>
@@ -4044,7 +4044,7 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
@@ -4387,16 +4387,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
         <v>2.05</v>
@@ -4429,10 +4429,10 @@
         <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W22" t="n">
         <v>9</v>
@@ -4456,7 +4456,7 @@
         <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4465,7 +4465,7 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH22" t="n">
         <v>7.5</v>
@@ -4474,7 +4474,7 @@
         <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK22" t="n">
         <v>23</v>
@@ -4486,7 +4486,7 @@
         <v>34</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO22" t="n">
         <v>17</v>
@@ -4525,7 +4525,7 @@
         <v>26</v>
       </c>
       <c r="BA22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB22" t="n">
         <v>67</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>lM4vkQrf</t>
+          <t>0Wh0K5dE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,179 +4550,179 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Jelgava</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>18</v>
       </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>6.8</v>
       </c>
       <c r="I23" t="n">
-        <v>2.45</v>
+        <v>1.1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.88</v>
+        <v>12</v>
       </c>
       <c r="K23" t="n">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="L23" t="n">
-        <v>2.88</v>
+        <v>1.39</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P23" t="n">
-        <v>7</v>
+        <v>7.33</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="R23" t="n">
-        <v>3.1</v>
+        <v>3.66</v>
       </c>
       <c r="S23" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="T23" t="n">
-        <v>4.33</v>
+        <v>5.21</v>
       </c>
       <c r="U23" t="n">
-        <v>1.33</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="n">
-        <v>3.25</v>
+        <v>1.78</v>
       </c>
       <c r="W23" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="Z23" t="n">
-        <v>29</v>
+        <v>450</v>
       </c>
       <c r="AA23" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="AC23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD23" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>700</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>500</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AU23" t="n">
         <v>10</v>
       </c>
-      <c r="AF23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK23" t="n">
+      <c r="AV23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="BB23" t="n">
         <v>26</v>
       </c>
-      <c r="AL23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>201</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>41</v>
-      </c>
       <c r="BC23" t="n">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="BD23" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>dn8nm4D6</t>
+          <t>lM4vkQrf</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4742,160 +4742,160 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Helmond</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G24" t="n">
         <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K24" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
+        <v>23</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W24" t="n">
         <v>17</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W24" t="n">
-        <v>13</v>
-      </c>
       <c r="X24" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA24" t="n">
         <v>17</v>
       </c>
       <c r="AB24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH24" t="n">
         <v>17</v>
       </c>
-      <c r="AD24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE24" t="n">
+      <c r="AI24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>11</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>10</v>
       </c>
       <c r="AK24" t="n">
         <v>26</v>
       </c>
       <c r="AL24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM24" t="n">
         <v>19</v>
       </c>
-      <c r="AM24" t="n">
-        <v>21</v>
-      </c>
       <c r="AN24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO24" t="n">
         <v>13</v>
       </c>
       <c r="AP24" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS24" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW24" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AX24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ24" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC24" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BD24" t="n">
         <v>151</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>foMGggbf</t>
+          <t>dn8nm4D6</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4919,165 +4919,165 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Cajamarca</t>
+          <t>Helmond</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I25" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="S25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U25" t="n">
         <v>1.44</v>
       </c>
-      <c r="T25" t="n">
+      <c r="V25" t="n">
         <v>2.63</v>
       </c>
-      <c r="U25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W25" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X25" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE25" t="n">
         <v>11</v>
       </c>
-      <c r="AA25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB25" t="n">
+      <c r="AF25" t="n">
         <v>34</v>
       </c>
-      <c r="AC25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>67</v>
-      </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>101</v>
       </c>
       <c r="AH25" t="n">
         <v>13</v>
       </c>
       <c r="AI25" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM25" t="n">
         <v>21</v>
       </c>
-      <c r="AK25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>51</v>
-      </c>
       <c r="AN25" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ25" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR25" t="n">
         <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="AU25" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AV25" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW25" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="AX25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY25" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AZ25" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="BA25" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="BB25" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BC25" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="BD25" t="n">
         <v>151</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>rNlN2GRk</t>
+          <t>foMGggbf</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,179 +5096,179 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I26" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K26" t="n">
         <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="R26" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T26" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="X26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC26" t="n">
         <v>8</v>
       </c>
-      <c r="Y26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>11</v>
-      </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH26" t="n">
         <v>15</v>
       </c>
-      <c r="AF26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>13</v>
-      </c>
       <c r="AI26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>23</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>29</v>
-      </c>
       <c r="AR26" t="n">
         <v>51</v>
       </c>
       <c r="AS26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA26" t="n">
         <v>151</v>
       </c>
-      <c r="AT26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>81</v>
-      </c>
       <c r="BB26" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC26" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BD26" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>neP0j61m</t>
+          <t>rNlN2GRk</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,146 +5278,146 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>S. Rzeszow</t>
+          <t>Cracovia</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>11</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.95</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N27" t="n">
-        <v>12</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W27" t="n">
+        <v>7</v>
+      </c>
+      <c r="X27" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y27" t="n">
         <v>8.5</v>
       </c>
-      <c r="X27" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>9</v>
-      </c>
       <c r="Z27" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD27" t="n">
         <v>7</v>
       </c>
       <c r="AE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH27" t="n">
         <v>13</v>
       </c>
-      <c r="AF27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>12</v>
-      </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL27" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP27" t="n">
         <v>19</v>
       </c>
       <c r="AQ27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR27" t="n">
         <v>51</v>
       </c>
       <c r="AS27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV27" t="n">
         <v>51</v>
@@ -5426,22 +5426,22 @@
         <v>81</v>
       </c>
       <c r="AX27" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BA27" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB27" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC27" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD27" t="n">
         <v>81</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>rNI9lpWa</t>
+          <t>neP0j61m</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5470,37 +5470,37 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>LKS Lodz</t>
+          <t>S. Rzeszow</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Tychy</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H28" t="n">
         <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="J28" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K28" t="n">
         <v>2.25</v>
       </c>
       <c r="L28" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O28" t="n">
         <v>1.25</v>
@@ -5527,19 +5527,19 @@
         <v>2.1</v>
       </c>
       <c r="W28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
       </c>
       <c r="Z28" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB28" t="n">
         <v>23</v>
@@ -5560,34 +5560,34 @@
         <v>151</v>
       </c>
       <c r="AH28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO28" t="n">
         <v>11</v>
       </c>
-      <c r="AI28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK28" t="n">
+      <c r="AP28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>34</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>41</v>
       </c>
       <c r="AR28" t="n">
         <v>51</v>
@@ -5608,19 +5608,19 @@
         <v>81</v>
       </c>
       <c r="AX28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA28" t="n">
         <v>51</v>
       </c>
       <c r="BB28" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC28" t="n">
         <v>151</v>
@@ -5632,7 +5632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>r3W9nmug</t>
+          <t>rNI9lpWa</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,128 +5642,128 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>LKS Lodz</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H29" t="n">
         <v>3.4</v>
       </c>
       <c r="I29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L29" t="n">
         <v>3.6</v>
       </c>
-      <c r="J29" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4</v>
-      </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O29" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R29" t="n">
         <v>2</v>
       </c>
-      <c r="R29" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S29" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T29" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U29" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V29" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W29" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X29" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
         <v>9</v>
       </c>
       <c r="Z29" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA29" t="n">
         <v>17</v>
       </c>
       <c r="AB29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD29" t="n">
         <v>6.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AH29" t="n">
         <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM29" t="n">
         <v>29</v>
       </c>
-      <c r="AM29" t="n">
-        <v>34</v>
-      </c>
       <c r="AN29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
         <v>21</v>
@@ -5775,46 +5775,46 @@
         <v>51</v>
       </c>
       <c r="AS29" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC29" t="n">
         <v>151</v>
       </c>
-      <c r="AT29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB29" t="n">
+      <c r="BD29" t="n">
         <v>81</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pnyNiY7c</t>
+          <t>r3W9nmug</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,47 +5824,47 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K30" t="n">
         <v>2.2</v>
       </c>
       <c r="L30" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
         <v>1.29</v>
@@ -5888,22 +5888,22 @@
         <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W30" t="n">
         <v>7.5</v>
       </c>
       <c r="X30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
       </c>
       <c r="Z30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA30" t="n">
         <v>17</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>15</v>
       </c>
       <c r="AB30" t="n">
         <v>26</v>
@@ -5924,13 +5924,13 @@
         <v>251</v>
       </c>
       <c r="AH30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
         <v>41</v>
@@ -5939,7 +5939,7 @@
         <v>29</v>
       </c>
       <c r="AM30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN30" t="n">
         <v>4</v>
@@ -5951,7 +5951,7 @@
         <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR30" t="n">
         <v>51</v>
@@ -5969,16 +5969,16 @@
         <v>51</v>
       </c>
       <c r="AW30" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AX30" t="n">
         <v>5.5</v>
       </c>
       <c r="AY30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA30" t="n">
         <v>67</v>
@@ -5990,13 +5990,13 @@
         <v>201</v>
       </c>
       <c r="BD30" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>QNDwEUlJ</t>
+          <t>pnyNiY7c</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,41 +6006,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Univ. Craiova</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.42</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L31" t="n">
         <v>4.33</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L31" t="n">
-        <v>7</v>
       </c>
       <c r="M31" t="n">
         <v>1.05</v>
@@ -6055,130 +6055,130 @@
         <v>3.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S31" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U31" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V31" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="W31" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
       </c>
       <c r="Z31" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AA31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>13</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AK31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL31" t="n">
         <v>29</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AM31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO31" t="n">
         <v>11</v>
       </c>
-      <c r="AD31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE31" t="n">
+      <c r="AP31" t="n">
         <v>21</v>
       </c>
-      <c r="AF31" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI31" t="n">
+      <c r="AQ31" t="n">
         <v>34</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>21</v>
-      </c>
       <c r="AR31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS31" t="n">
         <v>151</v>
       </c>
       <c r="AT31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU31" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA31" t="n">
         <v>67</v>
       </c>
-      <c r="AW31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>151</v>
-      </c>
       <c r="BB31" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BC31" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BD31" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>fiuf3I9l</t>
+          <t>QNDwEUlJ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,41 +6188,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Univ. Craiova</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I32" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J32" t="n">
         <v>1.95</v>
       </c>
       <c r="K32" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
@@ -6231,16 +6231,16 @@
         <v>13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R32" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S32" t="n">
         <v>1.33</v>
@@ -6249,16 +6249,16 @@
         <v>3.25</v>
       </c>
       <c r="U32" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W32" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y32" t="n">
         <v>8.5</v>
@@ -6270,28 +6270,28 @@
         <v>12</v>
       </c>
       <c r="AB32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC32" t="n">
         <v>12</v>
       </c>
       <c r="AD32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH32" t="n">
         <v>17</v>
       </c>
-      <c r="AF32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>19</v>
-      </c>
       <c r="AI32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ32" t="n">
         <v>21</v>
@@ -6312,7 +6312,7 @@
         <v>7</v>
       </c>
       <c r="AP32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ32" t="n">
         <v>21</v>
@@ -6321,7 +6321,7 @@
         <v>41</v>
       </c>
       <c r="AS32" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT32" t="n">
         <v>3.25</v>
@@ -6333,34 +6333,34 @@
         <v>51</v>
       </c>
       <c r="AW32" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ32" t="n">
         <v>41</v>
       </c>
       <c r="BA32" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB32" t="n">
         <v>151</v>
       </c>
       <c r="BC32" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD32" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>nuHwlAFJ</t>
+          <t>fiuf3I9l</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6370,179 +6370,179 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vasteras SK</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>1.44</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="J33" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="K33" t="n">
         <v>2.4</v>
       </c>
       <c r="L33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>13</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T33" t="n">
         <v>3.25</v>
       </c>
-      <c r="M33" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N33" t="n">
-        <v>19</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T33" t="n">
-        <v>3.5</v>
-      </c>
       <c r="U33" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="V33" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="W33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA33" t="n">
         <v>12</v>
       </c>
-      <c r="X33" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>15</v>
-      </c>
       <c r="AB33" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC33" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AD33" t="n">
         <v>8</v>
       </c>
       <c r="AE33" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF33" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG33" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AH33" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AJ33" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AK33" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AM33" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AN33" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO33" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AP33" t="n">
         <v>17</v>
       </c>
       <c r="AQ33" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AR33" t="n">
         <v>41</v>
       </c>
       <c r="AS33" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU33" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW33" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="AX33" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AY33" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AZ33" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="BA33" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BB33" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BC33" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BD33" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2iszUlOm</t>
+          <t>nuHwlAFJ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6562,160 +6562,160 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Vasteras SK</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N34" t="n">
+        <v>17</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V34" t="n">
         <v>2.5</v>
       </c>
-      <c r="J34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N34" t="n">
-        <v>11</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2</v>
-      </c>
       <c r="W34" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X34" t="n">
         <v>13</v>
       </c>
       <c r="Y34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB34" t="n">
         <v>21</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AC34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK34" t="n">
         <v>29</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>23</v>
       </c>
       <c r="AL34" t="n">
         <v>21</v>
       </c>
       <c r="AM34" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN34" t="n">
         <v>4.75</v>
       </c>
       <c r="AO34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY34" t="n">
         <v>15</v>
       </c>
-      <c r="AP34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>13</v>
-      </c>
       <c r="AZ34" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA34" t="n">
         <v>41</v>
       </c>
       <c r="BB34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC34" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD34" t="n">
         <v>151</v>
@@ -6724,7 +6724,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4GknkEa0</t>
+          <t>2iszUlOm</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6734,146 +6734,146 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Oster</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Utsikten</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.38</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N35" t="n">
+        <v>11</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU35" t="n">
         <v>7.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L35" t="n">
-        <v>7</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N35" t="n">
-        <v>15</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W35" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X35" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>8.5</v>
       </c>
       <c r="AV35" t="n">
         <v>51</v>
@@ -6882,22 +6882,22 @@
         <v>501</v>
       </c>
       <c r="AX35" t="n">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY35" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AZ35" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="BA35" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="BB35" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC35" t="n">
         <v>151</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>251</v>
       </c>
       <c r="BD35" t="n">
         <v>151</v>
@@ -6906,7 +6906,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>r7ljlYE6</t>
+          <t>4GknkEa0</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6926,136 +6926,136 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>Oster</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Oddevold</t>
+          <t>Utsikten</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>1.38</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="I36" t="n">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="J36" t="n">
-        <v>2.75</v>
+        <v>1.83</v>
       </c>
       <c r="K36" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L36" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
+        <v>15</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA36" t="n">
         <v>11</v>
       </c>
-      <c r="O36" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2</v>
-      </c>
-      <c r="W36" t="n">
-        <v>8</v>
-      </c>
-      <c r="X36" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y36" t="n">
+      <c r="AB36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD36" t="n">
         <v>9</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AE36" t="n">
         <v>19</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AF36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP36" t="n">
         <v>17</v>
       </c>
-      <c r="AB36" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ36" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AR36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS36" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV36" t="n">
         <v>51</v>
@@ -7064,31 +7064,31 @@
         <v>501</v>
       </c>
       <c r="AX36" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AY36" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ36" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="BA36" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB36" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC36" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD36" t="n">
         <v>151</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>jazh1Oio</t>
+          <t>r7ljlYE6</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7103,90 +7103,90 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Oddevold</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>1.62</v>
+        <v>3.3</v>
       </c>
       <c r="J37" t="n">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="K37" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L37" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
+        <v>11</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2</v>
+      </c>
+      <c r="W37" t="n">
+        <v>8</v>
+      </c>
+      <c r="X37" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA37" t="n">
         <v>17</v>
       </c>
-      <c r="O37" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T37" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W37" t="n">
-        <v>19</v>
-      </c>
-      <c r="X37" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>34</v>
-      </c>
       <c r="AB37" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC37" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE37" t="n">
         <v>13</v>
@@ -7195,82 +7195,82 @@
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AH37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI37" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AJ37" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AK37" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AL37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO37" t="n">
         <v>12</v>
       </c>
-      <c r="AM37" t="n">
+      <c r="AP37" t="n">
         <v>21</v>
       </c>
-      <c r="AN37" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ37" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR37" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS37" t="n">
         <v>151</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="AX37" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AY37" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AZ37" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="BA37" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BB37" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BC37" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD37" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Clqgvad3</t>
+          <t>jazh1Oio</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7285,90 +7285,90 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I38" t="n">
-        <v>3.1</v>
+        <v>1.62</v>
       </c>
       <c r="J38" t="n">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="K38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L38" t="n">
         <v>2.2</v>
       </c>
-      <c r="L38" t="n">
-        <v>3.75</v>
-      </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O38" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="P38" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="R38" t="n">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="S38" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T38" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U38" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="V38" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W38" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="X38" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Y38" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z38" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AA38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC38" t="n">
         <v>17</v>
       </c>
-      <c r="AB38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>11</v>
-      </c>
       <c r="AD38" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE38" t="n">
         <v>13</v>
@@ -7377,82 +7377,82 @@
         <v>41</v>
       </c>
       <c r="AG38" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH38" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AJ38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL38" t="n">
         <v>12</v>
       </c>
-      <c r="AK38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL38" t="n">
+      <c r="AM38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP38" t="n">
         <v>26</v>
       </c>
-      <c r="AM38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ38" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR38" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS38" t="n">
         <v>151</v>
       </c>
       <c r="AT38" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU38" t="n">
         <v>7.5</v>
       </c>
       <c r="AV38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW38" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AX38" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AY38" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AZ38" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="BA38" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="BB38" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BC38" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD38" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>YcOJPasA</t>
+          <t>Clqgvad3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7472,124 +7472,124 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L39" t="n">
         <v>3.75</v>
       </c>
-      <c r="I39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L39" t="n">
-        <v>6</v>
-      </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P39" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q39" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R39" t="n">
         <v>1.95</v>
       </c>
-      <c r="R39" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S39" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T39" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U39" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V39" t="n">
         <v>2</v>
       </c>
-      <c r="V39" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD39" t="n">
         <v>6.5</v>
       </c>
-      <c r="X39" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z39" t="n">
+      <c r="AE39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH39" t="n">
         <v>11</v>
       </c>
-      <c r="AA39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>15</v>
-      </c>
       <c r="AI39" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AJ39" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AK39" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AL39" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AM39" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN39" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO39" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AP39" t="n">
         <v>21</v>
       </c>
       <c r="AQ39" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR39" t="n">
         <v>51</v>
@@ -7598,10 +7598,10 @@
         <v>151</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU39" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV39" t="n">
         <v>51</v>
@@ -7610,22 +7610,22 @@
         <v>126</v>
       </c>
       <c r="AX39" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AY39" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AZ39" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="BA39" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BB39" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC39" t="n">
         <v>151</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>301</v>
       </c>
       <c r="BD39" t="n">
         <v>126</v>
@@ -7634,7 +7634,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>x4fPttOp</t>
+          <t>YcOJPasA</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7644,354 +7644,536 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FK Zorya Luhansk</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.32</v>
+        <v>1.53</v>
       </c>
       <c r="H40" t="n">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
       <c r="I40" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="J40" t="n">
-        <v>2.92</v>
+        <v>2.1</v>
       </c>
       <c r="K40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L40" t="n">
+        <v>6</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N40" t="n">
+        <v>10</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U40" t="n">
         <v>2</v>
       </c>
-      <c r="L40" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N40" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.78</v>
-      </c>
       <c r="V40" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="W40" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="X40" t="n">
-        <v>10.75</v>
+        <v>7</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AA40" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AB40" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AD40" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AF40" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AG40" t="n">
-        <v>600</v>
+        <v>351</v>
       </c>
       <c r="AH40" t="n">
-        <v>8.75</v>
+        <v>15</v>
       </c>
       <c r="AI40" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AJ40" t="n">
-        <v>10.75</v>
+        <v>19</v>
       </c>
       <c r="AK40" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AL40" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AM40" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="AN40" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="AP40" t="n">
         <v>21</v>
       </c>
       <c r="AQ40" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AR40" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS40" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="AU40" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="AV40" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW40" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AX40" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="AY40" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AZ40" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="BA40" t="n">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="BB40" t="n">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="BC40" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BD40" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>x4fPttOp</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>30/09/2024</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>FK Zorya Luhansk</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N41" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W41" t="n">
+        <v>7</v>
+      </c>
+      <c r="X41" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>300</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>CbUXtD5U</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>30/09/2024</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Penarol</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Racing Montevideo</t>
         </is>
       </c>
-      <c r="G41" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H41" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="G42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K42" t="n">
         <v>2.05</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L42" t="n">
         <v>6</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M42" t="n">
         <v>1.08</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N42" t="n">
         <v>8</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O42" t="n">
         <v>1.44</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P42" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q42" t="n">
         <v>2.35</v>
       </c>
-      <c r="R41" t="n">
+      <c r="R42" t="n">
         <v>1.57</v>
       </c>
-      <c r="S41" t="n">
+      <c r="S42" t="n">
         <v>1.5</v>
       </c>
-      <c r="T41" t="n">
+      <c r="T42" t="n">
         <v>2.5</v>
       </c>
-      <c r="U41" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W41" t="n">
+      <c r="U42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W42" t="n">
         <v>5.5</v>
       </c>
-      <c r="X41" t="n">
+      <c r="X42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX42" t="n">
         <v>7</v>
       </c>
-      <c r="Y41" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB41" t="n">
+      <c r="AY42" t="n">
         <v>34</v>
       </c>
-      <c r="AC41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA41" t="n">
+      <c r="AZ42" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA42" t="n">
         <v>126</v>
       </c>
-      <c r="BB41" t="n">
+      <c r="BB42" t="n">
         <v>151</v>
       </c>
-      <c r="BC41" t="n">
+      <c r="BC42" t="n">
         <v>351</v>
       </c>
-      <c r="BD41" t="n">
+      <c r="BD42" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
@@ -759,16 +759,16 @@
         <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -777,16 +777,16 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
         <v>1.57</v>
@@ -795,13 +795,13 @@
         <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>13</v>
@@ -816,7 +816,7 @@
         <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -864,7 +864,7 @@
         <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -1857,10 +1857,10 @@
         <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1869,10 +1869,10 @@
         <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>1.95</v>
@@ -2063,10 +2063,10 @@
         <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
         <v>6.5</v>
@@ -2153,7 +2153,7 @@
         <v>4.75</v>
       </c>
       <c r="AY9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ9" t="n">
         <v>29</v>
@@ -2165,7 +2165,7 @@
         <v>101</v>
       </c>
       <c r="BC9" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD9" t="n">
         <v>126</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -2233,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2284,7 +2284,7 @@
         <v>301</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>15</v>
@@ -2317,7 +2317,7 @@
         <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
         <v>2.63</v>
@@ -2341,7 +2341,7 @@
         <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
         <v>81</v>
@@ -2403,10 +2403,10 @@
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -2567,76 +2567,76 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V12" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
         <v>26</v>
       </c>
       <c r="AA12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
@@ -2645,13 +2645,13 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
@@ -2663,28 +2663,28 @@
         <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
         <v>51</v>
       </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2696,13 +2696,13 @@
         <v>81</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY12" t="n">
         <v>15</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA12" t="n">
         <v>51</v>
@@ -2711,7 +2711,7 @@
         <v>67</v>
       </c>
       <c r="BC12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2779,10 +2779,10 @@
         <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R13" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S13" t="n">
         <v>1.29</v>
@@ -2797,7 +2797,7 @@
         <v>2.5</v>
       </c>
       <c r="W13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X13" t="n">
         <v>15</v>
@@ -2842,7 +2842,7 @@
         <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
         <v>21</v>
@@ -2896,7 +2896,7 @@
         <v>101</v>
       </c>
       <c r="BD13" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
@@ -3137,16 +3137,16 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="n">
         <v>1.3</v>
@@ -3176,7 +3176,7 @@
         <v>12</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
         <v>15</v>
@@ -3191,7 +3191,7 @@
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH15" t="n">
         <v>17</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
         <v>2.27</v>
@@ -3492,7 +3492,7 @@
         <v>2.5</v>
       </c>
       <c r="L17" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -3504,10 +3504,10 @@
         <v>1.12</v>
       </c>
       <c r="P17" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R17" t="n">
         <v>2.8</v>
@@ -3516,25 +3516,25 @@
         <v>1.23</v>
       </c>
       <c r="T17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V17" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="W17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
         <v>8.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA17" t="n">
         <v>12.5</v>
@@ -3552,31 +3552,31 @@
         <v>11.25</v>
       </c>
       <c r="AF17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL17" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>25</v>
       </c>
       <c r="AM17" t="n">
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AO17" t="n">
         <v>8.75</v>
@@ -3594,22 +3594,22 @@
         <v>100</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AU17" t="n">
         <v>6.2</v>
       </c>
       <c r="AV17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AW17" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AX17" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AY17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AZ17" t="n">
         <v>17.5</v>
@@ -3659,13 +3659,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J18" t="n">
         <v>3.4</v>
@@ -3695,16 +3695,16 @@
         <v>1.67</v>
       </c>
       <c r="S18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W18" t="n">
         <v>7.5</v>
@@ -3719,13 +3719,13 @@
         <v>26</v>
       </c>
       <c r="AA18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB18" t="n">
         <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
@@ -3740,7 +3740,7 @@
         <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
@@ -3776,10 +3776,10 @@
         <v>201</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -3788,7 +3788,7 @@
         <v>81</v>
       </c>
       <c r="AX18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY18" t="n">
         <v>15</v>
@@ -3865,16 +3865,16 @@
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S19" t="n">
         <v>1.5</v>
@@ -4229,16 +4229,16 @@
         <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
         <v>1.5</v>
@@ -4387,16 +4387,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
         <v>2.05</v>
@@ -4417,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4429,10 +4429,10 @@
         <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W22" t="n">
         <v>9</v>
@@ -4456,7 +4456,7 @@
         <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4465,7 +4465,7 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH22" t="n">
         <v>7.5</v>
@@ -4474,7 +4474,7 @@
         <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
         <v>23</v>
@@ -4486,7 +4486,7 @@
         <v>34</v>
       </c>
       <c r="AN22" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO22" t="n">
         <v>17</v>
@@ -4525,7 +4525,7 @@
         <v>26</v>
       </c>
       <c r="BA22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB22" t="n">
         <v>67</v>
@@ -4754,7 +4754,7 @@
         <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I24" t="n">
         <v>2.45</v>
@@ -4763,7 +4763,7 @@
         <v>2.88</v>
       </c>
       <c r="K24" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L24" t="n">
         <v>2.88</v>
@@ -4775,10 +4775,10 @@
         <v>23</v>
       </c>
       <c r="O24" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q24" t="n">
         <v>1.33</v>
@@ -4793,13 +4793,13 @@
         <v>4.33</v>
       </c>
       <c r="U24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X24" t="n">
         <v>19</v>
@@ -4814,13 +4814,13 @@
         <v>17</v>
       </c>
       <c r="AB24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD24" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE24" t="n">
         <v>10</v>
@@ -4829,10 +4829,10 @@
         <v>23</v>
       </c>
       <c r="AG24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>19</v>
@@ -4841,25 +4841,25 @@
         <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL24" t="n">
         <v>17</v>
       </c>
       <c r="AM24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN24" t="n">
         <v>5.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
       </c>
       <c r="AQ24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR24" t="n">
         <v>41</v>
@@ -4874,10 +4874,10 @@
         <v>6.5</v>
       </c>
       <c r="AV24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AW24" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AX24" t="n">
         <v>5.5</v>
@@ -4933,16 +4933,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H25" t="n">
         <v>3.75</v>
       </c>
       <c r="I25" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
         <v>2.4</v>
@@ -4957,10 +4957,10 @@
         <v>17</v>
       </c>
       <c r="O25" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="n">
         <v>1.53</v>
@@ -4975,16 +4975,16 @@
         <v>3.5</v>
       </c>
       <c r="U25" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V25" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W25" t="n">
         <v>13</v>
       </c>
       <c r="X25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y25" t="n">
         <v>10</v>
@@ -4993,13 +4993,13 @@
         <v>26</v>
       </c>
       <c r="AA25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB25" t="n">
         <v>21</v>
       </c>
       <c r="AC25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD25" t="n">
         <v>7.5</v>
@@ -5014,7 +5014,7 @@
         <v>101</v>
       </c>
       <c r="AH25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI25" t="n">
         <v>15</v>
@@ -5023,7 +5023,7 @@
         <v>10</v>
       </c>
       <c r="AK25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL25" t="n">
         <v>17</v>
@@ -5062,7 +5062,7 @@
         <v>301</v>
       </c>
       <c r="AX25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY25" t="n">
         <v>13</v>
@@ -5115,22 +5115,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="H26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
@@ -5139,16 +5139,16 @@
         <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S26" t="n">
         <v>1.44</v>
@@ -5157,37 +5157,37 @@
         <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V26" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W26" t="n">
         <v>5.5</v>
       </c>
       <c r="X26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z26" t="n">
         <v>9</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>10</v>
       </c>
       <c r="AA26" t="n">
         <v>15</v>
       </c>
       <c r="AB26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="n">
         <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF26" t="n">
         <v>81</v>
@@ -5199,31 +5199,31 @@
         <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP26" t="n">
         <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR26" t="n">
         <v>51</v>
@@ -5235,16 +5235,16 @@
         <v>2.63</v>
       </c>
       <c r="AU26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW26" t="n">
         <v>126</v>
       </c>
       <c r="AX26" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AY26" t="n">
         <v>41</v>
@@ -5253,10 +5253,10 @@
         <v>41</v>
       </c>
       <c r="BA26" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB26" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC26" t="n">
         <v>351</v>
@@ -5297,10 +5297,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I27" t="n">
         <v>4.5</v>
@@ -5339,10 +5339,10 @@
         <v>3</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V27" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W27" t="n">
         <v>7</v>
@@ -5479,46 +5479,46 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="H28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J28" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K28" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R28" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U28" t="n">
         <v>1.67</v>
@@ -5530,13 +5530,13 @@
         <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="n">
         <v>15</v>
@@ -5548,7 +5548,7 @@
         <v>12</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>13</v>
@@ -5560,10 +5560,10 @@
         <v>151</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ28" t="n">
         <v>13</v>
@@ -5581,13 +5581,13 @@
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR28" t="n">
         <v>51</v>
@@ -5596,7 +5596,7 @@
         <v>126</v>
       </c>
       <c r="AT28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU28" t="n">
         <v>7.5</v>
@@ -5608,16 +5608,16 @@
         <v>81</v>
       </c>
       <c r="AX28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ28" t="n">
         <v>26</v>
       </c>
       <c r="BA28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB28" t="n">
         <v>81</v>
@@ -5679,10 +5679,10 @@
         <v>3.6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O29" t="n">
         <v>1.25</v>
@@ -5691,10 +5691,10 @@
         <v>3.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S29" t="n">
         <v>1.36</v>
@@ -5861,10 +5861,10 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O30" t="n">
         <v>1.29</v>
@@ -6025,28 +6025,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H31" t="n">
         <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J31" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K31" t="n">
         <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
         <v>1.29</v>
@@ -6076,7 +6076,7 @@
         <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="AA31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB31" t="n">
         <v>26</v>
@@ -6121,7 +6121,7 @@
         <v>29</v>
       </c>
       <c r="AM31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN31" t="n">
         <v>4</v>
@@ -6133,7 +6133,7 @@
         <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR31" t="n">
         <v>51</v>
@@ -6207,19 +6207,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H32" t="n">
         <v>4.5</v>
       </c>
       <c r="I32" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J32" t="n">
         <v>1.95</v>
       </c>
       <c r="K32" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L32" t="n">
         <v>7</v>
@@ -6228,13 +6228,13 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P32" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
         <v>1.75</v>
@@ -6255,7 +6255,7 @@
         <v>1.73</v>
       </c>
       <c r="W32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X32" t="n">
         <v>6.5</v>
@@ -6285,7 +6285,7 @@
         <v>67</v>
       </c>
       <c r="AG32" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AH32" t="n">
         <v>17</v>
@@ -6321,7 +6321,7 @@
         <v>41</v>
       </c>
       <c r="AS32" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT32" t="n">
         <v>3.25</v>
@@ -6336,10 +6336,10 @@
         <v>51</v>
       </c>
       <c r="AX32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ32" t="n">
         <v>41</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H35" t="n">
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J35" t="n">
         <v>3.4</v>
@@ -6771,10 +6771,10 @@
         <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -6783,10 +6783,10 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R35" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
         <v>1.36</v>
@@ -6795,13 +6795,13 @@
         <v>3</v>
       </c>
       <c r="U35" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V35" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X35" t="n">
         <v>15</v>
@@ -6831,7 +6831,7 @@
         <v>41</v>
       </c>
       <c r="AG35" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH35" t="n">
         <v>9</v>
@@ -6900,7 +6900,7 @@
         <v>151</v>
       </c>
       <c r="BD35" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
@@ -6983,7 +6983,7 @@
         <v>1.91</v>
       </c>
       <c r="W36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X36" t="n">
         <v>7</v>
@@ -7070,7 +7070,7 @@
         <v>34</v>
       </c>
       <c r="AZ36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA36" t="n">
         <v>126</v>
@@ -7117,28 +7117,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H37" t="n">
         <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K37" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L37" t="n">
         <v>3.75</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O37" t="n">
         <v>1.3</v>
@@ -7147,10 +7147,10 @@
         <v>3.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R37" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S37" t="n">
         <v>1.4</v>
@@ -7159,13 +7159,13 @@
         <v>2.75</v>
       </c>
       <c r="U37" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X37" t="n">
         <v>10</v>
@@ -7174,13 +7174,13 @@
         <v>9</v>
       </c>
       <c r="Z37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA37" t="n">
         <v>17</v>
       </c>
       <c r="AB37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC37" t="n">
         <v>10</v>
@@ -7189,13 +7189,13 @@
         <v>6.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG37" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH37" t="n">
         <v>10</v>
@@ -7246,7 +7246,7 @@
         <v>501</v>
       </c>
       <c r="AX37" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY37" t="n">
         <v>19</v>
@@ -7261,7 +7261,7 @@
         <v>81</v>
       </c>
       <c r="BC37" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD37" t="n">
         <v>126</v>
@@ -7299,16 +7299,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H38" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="J38" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K38" t="n">
         <v>2.5</v>
@@ -7347,10 +7347,10 @@
         <v>2.25</v>
       </c>
       <c r="W38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y38" t="n">
         <v>15</v>
@@ -7398,7 +7398,7 @@
         <v>21</v>
       </c>
       <c r="AN38" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO38" t="n">
         <v>23</v>
@@ -7431,7 +7431,7 @@
         <v>4</v>
       </c>
       <c r="AY38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ38" t="n">
         <v>15</v>
@@ -7443,7 +7443,7 @@
         <v>41</v>
       </c>
       <c r="BC38" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD38" t="n">
         <v>301</v>
@@ -7481,7 +7481,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H39" t="n">
         <v>3.3</v>
@@ -7490,13 +7490,13 @@
         <v>3.1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K39" t="n">
         <v>2.2</v>
       </c>
       <c r="L39" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M39" t="n">
         <v>1.05</v>
@@ -7523,10 +7523,10 @@
         <v>3</v>
       </c>
       <c r="U39" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V39" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W39" t="n">
         <v>8.5</v>
@@ -7538,7 +7538,7 @@
         <v>9</v>
       </c>
       <c r="Z39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA39" t="n">
         <v>17</v>
@@ -7574,10 +7574,10 @@
         <v>34</v>
       </c>
       <c r="AL39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN39" t="n">
         <v>4.33</v>
@@ -7610,19 +7610,19 @@
         <v>126</v>
       </c>
       <c r="AX39" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY39" t="n">
         <v>17</v>
       </c>
       <c r="AZ39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA39" t="n">
         <v>51</v>
       </c>
       <c r="BB39" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC39" t="n">
         <v>151</v>
@@ -7845,64 +7845,64 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="H41" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I41" t="n">
         <v>2.95</v>
       </c>
-      <c r="I41" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J41" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L41" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M41" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>8.85</v>
+        <v>8.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P41" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="R41" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S41" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T41" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="U41" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V41" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W41" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="X41" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="Y41" t="n">
         <v>9.25</v>
       </c>
       <c r="Z41" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA41" t="n">
         <v>21</v>
@@ -7911,49 +7911,49 @@
         <v>32</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE41" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF41" t="n">
         <v>75</v>
       </c>
       <c r="AG41" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH41" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AI41" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AJ41" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK41" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM41" t="n">
         <v>40</v>
       </c>
-      <c r="AL41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>37</v>
-      </c>
       <c r="AN41" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="AO41" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ41" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR41" t="n">
         <v>90</v>
@@ -7962,34 +7962,34 @@
         <v>250</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="AU41" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV41" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW41" t="n">
         <v>81</v>
       </c>
       <c r="AX41" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AY41" t="n">
         <v>17</v>
       </c>
       <c r="AZ41" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA41" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB41" t="n">
         <v>120</v>
       </c>
       <c r="BC41" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD41" t="n">
         <v>81</v>
@@ -8030,13 +8030,13 @@
         <v>1.65</v>
       </c>
       <c r="H42" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I42" t="n">
         <v>5.25</v>
       </c>
       <c r="J42" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K42" t="n">
         <v>2.05</v>
@@ -8090,7 +8090,7 @@
         <v>17</v>
       </c>
       <c r="AB42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC42" t="n">
         <v>7.5</v>
@@ -8099,7 +8099,7 @@
         <v>7.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF42" t="n">
         <v>81</v>
@@ -8117,7 +8117,7 @@
         <v>19</v>
       </c>
       <c r="AK42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL42" t="n">
         <v>51</v>
@@ -8141,7 +8141,7 @@
         <v>51</v>
       </c>
       <c r="AS42" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT42" t="n">
         <v>2.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -789,10 +789,10 @@
         <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
         <v>11</v>
@@ -828,7 +828,7 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
@@ -849,13 +849,13 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
         <v>34</v>
@@ -953,10 +953,10 @@
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
         <v>1.73</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H4" t="n">
         <v>5.25</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K4" t="n">
         <v>2.63</v>
@@ -1153,13 +1153,13 @@
         <v>3.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
         <v>8.5</v>
@@ -1168,7 +1168,7 @@
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
@@ -1177,7 +1177,7 @@
         <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD4" t="n">
         <v>10</v>
@@ -1195,10 +1195,10 @@
         <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
@@ -1207,19 +1207,19 @@
         <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP4" t="n">
         <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>34</v>
@@ -1243,7 +1243,7 @@
         <v>8</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>29</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1517,10 +1517,10 @@
         <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W6" t="n">
         <v>4.75</v>
@@ -1541,7 +1541,7 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
         <v>7.5</v>
@@ -1565,7 +1565,7 @@
         <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="n">
         <v>51</v>
@@ -1589,7 +1589,7 @@
         <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="n">
         <v>2.38</v>
@@ -1598,22 +1598,22 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW6" t="n">
         <v>81</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="n">
         <v>251</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
         <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
@@ -1675,10 +1675,10 @@
         <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.57</v>
@@ -1699,10 +1699,10 @@
         <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W7" t="n">
         <v>5.5</v>
@@ -1741,7 +1741,7 @@
         <v>7.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>15</v>
@@ -1759,7 +1759,7 @@
         <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1777,7 +1777,7 @@
         <v>2.2</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV7" t="n">
         <v>81</v>
@@ -1798,7 +1798,7 @@
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
         <v>351</v>
@@ -1842,13 +1842,13 @@
         <v>2.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
         <v>2.45</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -1857,22 +1857,22 @@
         <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -1881,13 +1881,13 @@
         <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
@@ -1905,7 +1905,7 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
@@ -1914,7 +1914,7 @@
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
         <v>351</v>
@@ -1932,7 +1932,7 @@
         <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
@@ -1974,7 +1974,7 @@
         <v>15</v>
       </c>
       <c r="AZ8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA8" t="n">
         <v>51</v>
@@ -1983,7 +1983,7 @@
         <v>81</v>
       </c>
       <c r="BC8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD8" t="n">
         <v>51</v>
@@ -2051,10 +2051,10 @@
         <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
         <v>1.53</v>
@@ -2209,7 +2209,7 @@
         <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
         <v>3</v>
@@ -2224,7 +2224,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2266,7 +2266,7 @@
         <v>19</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
         <v>8.5</v>
@@ -2323,7 +2323,7 @@
         <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2779,10 +2779,10 @@
         <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S13" t="n">
         <v>1.29</v>
@@ -2800,16 +2800,16 @@
         <v>13</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="n">
         <v>21</v>
@@ -2821,7 +2821,7 @@
         <v>7.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
         <v>34</v>
@@ -2830,16 +2830,16 @@
         <v>101</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
         <v>17</v>
@@ -2878,7 +2878,7 @@
         <v>301</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY13" t="n">
         <v>13</v>
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
@@ -2973,25 +2973,25 @@
         <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
         <v>29</v>
@@ -3000,7 +3000,7 @@
         <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>17</v>
@@ -3009,22 +3009,22 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
         <v>34</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>29</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
@@ -3033,7 +3033,7 @@
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>23</v>
@@ -3042,7 +3042,7 @@
         <v>41</v>
       </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
         <v>151</v>
@@ -3051,7 +3051,7 @@
         <v>2.63</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
@@ -3063,7 +3063,7 @@
         <v>5.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ14" t="n">
         <v>29</v>
@@ -3072,10 +3072,10 @@
         <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD14" t="n">
         <v>51</v>
@@ -3295,22 +3295,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -3325,10 +3325,10 @@
         <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3337,16 +3337,16 @@
         <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
@@ -3367,7 +3367,7 @@
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
@@ -3379,7 +3379,7 @@
         <v>10</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
@@ -3388,7 +3388,7 @@
         <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
         <v>41</v>
@@ -3400,10 +3400,10 @@
         <v>11</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
         <v>51</v>
@@ -3415,7 +3415,7 @@
         <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
@@ -3424,22 +3424,22 @@
         <v>81</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB16" t="n">
         <v>101</v>
       </c>
       <c r="BC16" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD16" t="n">
         <v>81</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="H17" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L17" t="n">
         <v>3.95</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.75</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -3507,25 +3507,25 @@
         <v>5.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R17" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="S17" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="T17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="U17" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V17" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="W17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X17" t="n">
         <v>12.5</v>
@@ -3534,28 +3534,28 @@
         <v>8.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB17" t="n">
         <v>16</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AE17" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AF17" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG17" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AH17" t="n">
         <v>20</v>
@@ -3564,61 +3564,61 @@
         <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK17" t="n">
         <v>60</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AP17" t="n">
         <v>12.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AS17" t="n">
         <v>100</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV17" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AW17" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AX17" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ17" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="BA17" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BB17" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BC17" t="n">
         <v>150</v>
@@ -3659,94 +3659,94 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
         <v>2.55</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X18" t="n">
         <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
         <v>26</v>
       </c>
       <c r="AA18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG18" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
@@ -3755,16 +3755,16 @@
         <v>23</v>
       </c>
       <c r="AM18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
         <v>4.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
         <v>51</v>
@@ -3773,28 +3773,28 @@
         <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW18" t="n">
         <v>81</v>
       </c>
       <c r="AX18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA18" t="n">
         <v>51</v>
@@ -3803,7 +3803,7 @@
         <v>81</v>
       </c>
       <c r="BC18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3865,16 +3865,16 @@
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
         <v>1.5</v>
@@ -4023,40 +4023,40 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J20" t="n">
         <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R20" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
         <v>1.36</v>
@@ -4071,19 +4071,19 @@
         <v>2.1</v>
       </c>
       <c r="W20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
         <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB20" t="n">
         <v>29</v>
@@ -4110,7 +4110,7 @@
         <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK20" t="n">
         <v>21</v>
@@ -4119,13 +4119,13 @@
         <v>17</v>
       </c>
       <c r="AM20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN20" t="n">
         <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
@@ -4155,7 +4155,7 @@
         <v>4.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ20" t="n">
         <v>21</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
@@ -4229,16 +4229,16 @@
         <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S21" t="n">
         <v>1.5</v>
@@ -4253,25 +4253,25 @@
         <v>1.8</v>
       </c>
       <c r="W21" t="n">
+        <v>7</v>
+      </c>
+      <c r="X21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X21" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
@@ -4286,10 +4286,10 @@
         <v>401</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="n">
         <v>11</v>
@@ -4298,16 +4298,16 @@
         <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP21" t="n">
         <v>29</v>
@@ -4334,7 +4334,7 @@
         <v>81</v>
       </c>
       <c r="AX21" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY21" t="n">
         <v>17</v>
@@ -4387,16 +4387,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
         <v>2.05</v>
@@ -4429,10 +4429,10 @@
         <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W22" t="n">
         <v>9</v>
@@ -4465,7 +4465,7 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH22" t="n">
         <v>7.5</v>
@@ -4486,7 +4486,7 @@
         <v>34</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO22" t="n">
         <v>17</v>
@@ -4525,7 +4525,7 @@
         <v>26</v>
       </c>
       <c r="BA22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB22" t="n">
         <v>67</v>
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
         <v>3.9</v>
       </c>
       <c r="I24" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="J24" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K24" t="n">
         <v>2.63</v>
       </c>
       <c r="L24" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
@@ -4793,25 +4793,25 @@
         <v>4.33</v>
       </c>
       <c r="U24" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V24" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB24" t="n">
         <v>17</v>
@@ -4829,13 +4829,13 @@
         <v>23</v>
       </c>
       <c r="AG24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AH24" t="n">
         <v>19</v>
       </c>
       <c r="AI24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="n">
         <v>11</v>
@@ -4844,13 +4844,13 @@
         <v>29</v>
       </c>
       <c r="AL24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO24" t="n">
         <v>12</v>
@@ -4874,7 +4874,7 @@
         <v>6.5</v>
       </c>
       <c r="AV24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AW24" t="n">
         <v>151</v>
@@ -4883,13 +4883,13 @@
         <v>5.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ24" t="n">
         <v>15</v>
       </c>
       <c r="BA24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB24" t="n">
         <v>41</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K25" t="n">
         <v>2.4</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -4957,10 +4957,10 @@
         <v>17</v>
       </c>
       <c r="O25" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q25" t="n">
         <v>1.53</v>
@@ -4969,37 +4969,37 @@
         <v>2.4</v>
       </c>
       <c r="S25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V25" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC25" t="n">
         <v>19</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>17</v>
       </c>
       <c r="AD25" t="n">
         <v>7.5</v>
@@ -5020,22 +5020,22 @@
         <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK25" t="n">
         <v>23</v>
       </c>
       <c r="AL25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>21</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
         <v>19</v>
@@ -5050,7 +5050,7 @@
         <v>101</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU25" t="n">
         <v>7</v>
@@ -5065,19 +5065,19 @@
         <v>4.75</v>
       </c>
       <c r="AY25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC25" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD25" t="n">
         <v>151</v>
@@ -5118,16 +5118,16 @@
         <v>1.44</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J26" t="n">
         <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L26" t="n">
         <v>7.5</v>
@@ -5139,49 +5139,49 @@
         <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R26" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U26" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V26" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W26" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X26" t="n">
         <v>6</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z26" t="n">
         <v>9</v>
       </c>
       <c r="AA26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
         <v>8</v>
@@ -5196,7 +5196,7 @@
         <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
         <v>41</v>
@@ -5232,7 +5232,7 @@
         <v>201</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU26" t="n">
         <v>10</v>
@@ -5256,7 +5256,7 @@
         <v>201</v>
       </c>
       <c r="BB26" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC26" t="n">
         <v>351</v>
@@ -5309,28 +5309,28 @@
         <v>2.3</v>
       </c>
       <c r="K27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L27" t="n">
         <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R27" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
         <v>1.36</v>
@@ -5366,16 +5366,16 @@
         <v>11</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF27" t="n">
         <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH27" t="n">
         <v>13</v>
@@ -5396,7 +5396,7 @@
         <v>41</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO27" t="n">
         <v>9</v>
@@ -5417,7 +5417,7 @@
         <v>3</v>
       </c>
       <c r="AU27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV27" t="n">
         <v>51</v>
@@ -5441,7 +5441,7 @@
         <v>101</v>
       </c>
       <c r="BC27" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD27" t="n">
         <v>81</v>
@@ -5479,46 +5479,46 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J28" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K28" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L28" t="n">
         <v>4.33</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T28" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U28" t="n">
         <v>1.67</v>
@@ -5536,7 +5536,7 @@
         <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA28" t="n">
         <v>15</v>
@@ -5545,10 +5545,10 @@
         <v>23</v>
       </c>
       <c r="AC28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE28" t="n">
         <v>13</v>
@@ -5581,13 +5581,13 @@
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR28" t="n">
         <v>51</v>
@@ -5596,7 +5596,7 @@
         <v>126</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU28" t="n">
         <v>7.5</v>
@@ -5661,28 +5661,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L29" t="n">
         <v>3.6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O29" t="n">
         <v>1.25</v>
@@ -5691,10 +5691,10 @@
         <v>3.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R29" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
         <v>1.36</v>
@@ -5715,7 +5715,7 @@
         <v>11</v>
       </c>
       <c r="Y29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z29" t="n">
         <v>21</v>
@@ -5724,10 +5724,10 @@
         <v>17</v>
       </c>
       <c r="AB29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD29" t="n">
         <v>6.5</v>
@@ -6025,22 +6025,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
         <v>2.63</v>
       </c>
       <c r="K31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
@@ -6049,34 +6049,34 @@
         <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R31" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S31" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T31" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
@@ -6088,10 +6088,10 @@
         <v>17</v>
       </c>
       <c r="AB31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD31" t="n">
         <v>6.5</v>
@@ -6103,7 +6103,7 @@
         <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH31" t="n">
         <v>11</v>
@@ -6118,10 +6118,10 @@
         <v>41</v>
       </c>
       <c r="AL31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="n">
         <v>4</v>
@@ -6133,7 +6133,7 @@
         <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR31" t="n">
         <v>51</v>
@@ -6142,7 +6142,7 @@
         <v>151</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
@@ -6166,7 +6166,7 @@
         <v>67</v>
       </c>
       <c r="BB31" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC31" t="n">
         <v>201</v>
@@ -6207,46 +6207,46 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="H32" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="K32" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="R32" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T32" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U32" t="n">
         <v>2</v>
@@ -6255,16 +6255,16 @@
         <v>1.73</v>
       </c>
       <c r="W32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X32" t="n">
         <v>6.5</v>
       </c>
       <c r="Y32" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z32" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>9.5</v>
       </c>
       <c r="AA32" t="n">
         <v>12</v>
@@ -6273,13 +6273,13 @@
         <v>29</v>
       </c>
       <c r="AC32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF32" t="n">
         <v>67</v>
@@ -6291,7 +6291,7 @@
         <v>17</v>
       </c>
       <c r="AI32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ32" t="n">
         <v>21</v>
@@ -6306,16 +6306,16 @@
         <v>51</v>
       </c>
       <c r="AN32" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ32" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AR32" t="n">
         <v>41</v>
@@ -6324,22 +6324,22 @@
         <v>126</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX32" t="n">
         <v>9</v>
       </c>
-      <c r="AV32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>8</v>
-      </c>
       <c r="AY32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ32" t="n">
         <v>41</v>
@@ -6389,7 +6389,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H33" t="n">
         <v>4.2</v>
@@ -6410,7 +6410,7 @@
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O33" t="n">
         <v>1.22</v>
@@ -6446,13 +6446,13 @@
         <v>8.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA33" t="n">
         <v>12</v>
       </c>
       <c r="AB33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC33" t="n">
         <v>12</v>
@@ -6467,7 +6467,7 @@
         <v>51</v>
       </c>
       <c r="AG33" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH33" t="n">
         <v>19</v>
@@ -6488,7 +6488,7 @@
         <v>51</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO33" t="n">
         <v>7</v>
@@ -6509,7 +6509,7 @@
         <v>3.25</v>
       </c>
       <c r="AU33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV33" t="n">
         <v>51</v>
@@ -6524,13 +6524,13 @@
         <v>34</v>
       </c>
       <c r="AZ33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA33" t="n">
         <v>126</v>
       </c>
       <c r="BB33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC33" t="n">
         <v>251</v>
@@ -6756,10 +6756,10 @@
         <v>2.75</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J35" t="n">
         <v>3.4</v>
@@ -6783,10 +6783,10 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S35" t="n">
         <v>1.36</v>
@@ -6822,7 +6822,7 @@
         <v>12</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE35" t="n">
         <v>13</v>
@@ -6897,10 +6897,10 @@
         <v>51</v>
       </c>
       <c r="BC35" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD35" t="n">
         <v>151</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="36">
@@ -6947,10 +6947,10 @@
         <v>1.83</v>
       </c>
       <c r="K36" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
@@ -6959,34 +6959,34 @@
         <v>15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P36" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R36" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S36" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U36" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V36" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y36" t="n">
         <v>8.5</v>
@@ -7034,7 +7034,7 @@
         <v>51</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO36" t="n">
         <v>6.5</v>
@@ -7043,7 +7043,7 @@
         <v>17</v>
       </c>
       <c r="AQ36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR36" t="n">
         <v>41</v>
@@ -7052,7 +7052,7 @@
         <v>101</v>
       </c>
       <c r="AT36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU36" t="n">
         <v>8.5</v>
@@ -7076,10 +7076,10 @@
         <v>126</v>
       </c>
       <c r="BB36" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC36" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD36" t="n">
         <v>151</v>
@@ -7117,10 +7117,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
         <v>3.2</v>
@@ -7150,13 +7150,13 @@
         <v>2.05</v>
       </c>
       <c r="R37" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S37" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T37" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U37" t="n">
         <v>1.8</v>
@@ -7177,13 +7177,13 @@
         <v>21</v>
       </c>
       <c r="AA37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB37" t="n">
         <v>29</v>
       </c>
       <c r="AC37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD37" t="n">
         <v>6.5</v>
@@ -7198,7 +7198,7 @@
         <v>251</v>
       </c>
       <c r="AH37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI37" t="n">
         <v>17</v>
@@ -7222,19 +7222,19 @@
         <v>12</v>
       </c>
       <c r="AP37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ37" t="n">
         <v>41</v>
       </c>
       <c r="AR37" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS37" t="n">
         <v>151</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU37" t="n">
         <v>8</v>
@@ -7302,10 +7302,10 @@
         <v>4.75</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I38" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="J38" t="n">
         <v>4.5</v>
@@ -7314,43 +7314,43 @@
         <v>2.5</v>
       </c>
       <c r="L38" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O38" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="R38" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="S38" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T38" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U38" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V38" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y38" t="n">
         <v>15</v>
@@ -7365,10 +7365,10 @@
         <v>34</v>
       </c>
       <c r="AC38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE38" t="n">
         <v>13</v>
@@ -7377,13 +7377,13 @@
         <v>41</v>
       </c>
       <c r="AG38" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH38" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ38" t="n">
         <v>8.5</v>
@@ -7395,28 +7395,28 @@
         <v>12</v>
       </c>
       <c r="AM38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN38" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO38" t="n">
         <v>23</v>
       </c>
       <c r="AP38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ38" t="n">
         <v>67</v>
       </c>
       <c r="AR38" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS38" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU38" t="n">
         <v>7.5</v>
@@ -7425,13 +7425,13 @@
         <v>41</v>
       </c>
       <c r="AW38" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AX38" t="n">
         <v>4</v>
       </c>
       <c r="AY38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ38" t="n">
         <v>15</v>
@@ -7481,58 +7481,58 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J39" t="n">
         <v>2.88</v>
       </c>
       <c r="K39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N39" t="n">
+        <v>13</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V39" t="n">
         <v>2.2</v>
       </c>
-      <c r="L39" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N39" t="n">
-        <v>11</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T39" t="n">
-        <v>3</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V39" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W39" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y39" t="n">
         <v>9</v>
@@ -7544,49 +7544,49 @@
         <v>17</v>
       </c>
       <c r="AB39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC39" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF39" t="n">
         <v>41</v>
       </c>
       <c r="AG39" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI39" t="n">
         <v>17</v>
       </c>
       <c r="AJ39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK39" t="n">
         <v>34</v>
       </c>
       <c r="AL39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO39" t="n">
         <v>12</v>
       </c>
       <c r="AP39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ39" t="n">
         <v>41</v>
@@ -7595,16 +7595,16 @@
         <v>51</v>
       </c>
       <c r="AS39" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT39" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU39" t="n">
         <v>7.5</v>
       </c>
       <c r="AV39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW39" t="n">
         <v>126</v>
@@ -7613,10 +7613,10 @@
         <v>5</v>
       </c>
       <c r="AY39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA39" t="n">
         <v>51</v>
@@ -7625,7 +7625,7 @@
         <v>67</v>
       </c>
       <c r="BC39" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD39" t="n">
         <v>126</v>
@@ -7663,64 +7663,64 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="H40" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N40" t="n">
+        <v>13</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P40" t="n">
         <v>3.75</v>
       </c>
-      <c r="I40" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J40" t="n">
+      <c r="Q40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3</v>
+      </c>
+      <c r="U40" t="n">
         <v>2.1</v>
       </c>
-      <c r="K40" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L40" t="n">
+      <c r="V40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W40" t="n">
         <v>6</v>
       </c>
-      <c r="M40" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N40" t="n">
-        <v>10</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W40" t="n">
+      <c r="X40" t="n">
         <v>6.5</v>
-      </c>
-      <c r="X40" t="n">
-        <v>7</v>
       </c>
       <c r="Y40" t="n">
         <v>8.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA40" t="n">
         <v>13</v>
@@ -7732,82 +7732,82 @@
         <v>10</v>
       </c>
       <c r="AD40" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF40" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG40" t="n">
         <v>351</v>
       </c>
       <c r="AH40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI40" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ40" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AK40" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM40" t="n">
         <v>51</v>
       </c>
       <c r="AN40" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP40" t="n">
         <v>21</v>
       </c>
       <c r="AQ40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS40" t="n">
         <v>151</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV40" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW40" t="n">
         <v>126</v>
       </c>
       <c r="AX40" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AY40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ40" t="n">
         <v>41</v>
       </c>
       <c r="BA40" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB40" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC40" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD40" t="n">
         <v>126</v>
@@ -8030,10 +8030,10 @@
         <v>1.65</v>
       </c>
       <c r="H42" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I42" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J42" t="n">
         <v>2.3</v>
@@ -8090,16 +8090,16 @@
         <v>17</v>
       </c>
       <c r="AB42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC42" t="n">
         <v>7.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF42" t="n">
         <v>81</v>
@@ -8141,13 +8141,13 @@
         <v>51</v>
       </c>
       <c r="AS42" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT42" t="n">
         <v>2.5</v>
       </c>
       <c r="AU42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV42" t="n">
         <v>81</v>
@@ -8165,10 +8165,10 @@
         <v>41</v>
       </c>
       <c r="BA42" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB42" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC42" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
@@ -747,85 +747,85 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
         <v>9.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
         <v>23</v>
@@ -837,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -849,7 +849,7 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
@@ -858,37 +858,37 @@
         <v>21</v>
       </c>
       <c r="AR2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AX2" t="n">
         <v>7.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC2" t="n">
         <v>151</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -953,10 +953,10 @@
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q3" t="n">
         <v>1.73</v>
@@ -980,13 +980,13 @@
         <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="H4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I4" t="n">
         <v>5.25</v>
       </c>
-      <c r="I4" t="n">
-        <v>6.25</v>
-      </c>
       <c r="J4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
@@ -1153,28 +1153,28 @@
         <v>3.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
         <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
         <v>21</v>
@@ -1183,7 +1183,7 @@
         <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1192,19 +1192,19 @@
         <v>151</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
@@ -1213,13 +1213,13 @@
         <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP4" t="n">
         <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>34</v>
@@ -1231,28 +1231,28 @@
         <v>3.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
         <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AX4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC4" t="n">
         <v>151</v>
@@ -1493,10 +1493,10 @@
         <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
@@ -2051,10 +2051,10 @@
         <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
         <v>1.53</v>
@@ -2063,22 +2063,22 @@
         <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
         <v>11</v>
       </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
         <v>23</v>
@@ -2102,28 +2102,28 @@
         <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
         <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -2141,7 +2141,7 @@
         <v>2.38</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
@@ -2162,10 +2162,10 @@
         <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD9" t="n">
         <v>126</v>
@@ -2949,10 +2949,10 @@
         <v>4.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
@@ -3295,28 +3295,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -3325,10 +3325,10 @@
         <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3337,31 +3337,31 @@
         <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
@@ -3373,31 +3373,31 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
@@ -3406,7 +3406,7 @@
         <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS16" t="n">
         <v>151</v>
@@ -3424,19 +3424,19 @@
         <v>81</v>
       </c>
       <c r="AX16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC16" t="n">
         <v>201</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="H17" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="I17" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="J17" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="K17" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L17" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -3501,43 +3501,43 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="R17" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="S17" t="n">
         <v>1.22</v>
       </c>
       <c r="T17" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="U17" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V17" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="W17" t="n">
         <v>13.5</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y17" t="n">
         <v>8.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA17" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AB17" t="n">
         <v>16</v>
@@ -3546,10 +3546,10 @@
         <v>10.25</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AE17" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF17" t="n">
         <v>32</v>
@@ -3558,70 +3558,70 @@
         <v>150</v>
       </c>
       <c r="AH17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>20</v>
       </c>
-      <c r="AI17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>23</v>
-      </c>
       <c r="AR17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AS17" t="n">
         <v>100</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AW17" t="n">
         <v>400</v>
       </c>
       <c r="AX17" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AY17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA17" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB17" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BC17" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BD17" t="n">
         <v>51</v>
@@ -3659,28 +3659,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L18" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -3689,37 +3689,37 @@
         <v>2.63</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V18" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
         <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB18" t="n">
         <v>41</v>
@@ -3728,28 +3728,28 @@
         <v>7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
         <v>67</v>
       </c>
       <c r="AG18" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3758,25 +3758,25 @@
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP18" t="n">
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS18" t="n">
         <v>251</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU18" t="n">
         <v>8.5</v>
@@ -3788,10 +3788,10 @@
         <v>81</v>
       </c>
       <c r="AX18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
         <v>29</v>
@@ -4396,7 +4396,7 @@
         <v>2.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
         <v>2.05</v>
@@ -4417,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4429,10 +4429,10 @@
         <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W22" t="n">
         <v>9</v>
@@ -4456,7 +4456,7 @@
         <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4474,7 +4474,7 @@
         <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK22" t="n">
         <v>23</v>
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H24" t="n">
         <v>3.9</v>
       </c>
       <c r="I24" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K24" t="n">
         <v>2.63</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
@@ -4808,7 +4808,7 @@
         <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA24" t="n">
         <v>15</v>
@@ -4838,10 +4838,10 @@
         <v>21</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
         <v>19</v>
@@ -4853,7 +4853,7 @@
         <v>5</v>
       </c>
       <c r="AO24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
@@ -4963,10 +4963,10 @@
         <v>5.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R25" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S25" t="n">
         <v>1.25</v>
@@ -5115,40 +5115,40 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K26" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L26" t="n">
         <v>7.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R26" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S26" t="n">
         <v>1.4</v>
@@ -5157,10 +5157,10 @@
         <v>2.75</v>
       </c>
       <c r="U26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W26" t="n">
         <v>6</v>
@@ -5181,13 +5181,13 @@
         <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD26" t="n">
         <v>8</v>
       </c>
       <c r="AE26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF26" t="n">
         <v>81</v>
@@ -5214,7 +5214,7 @@
         <v>67</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
@@ -5229,7 +5229,7 @@
         <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT26" t="n">
         <v>2.75</v>
@@ -5238,7 +5238,7 @@
         <v>10</v>
       </c>
       <c r="AV26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW26" t="n">
         <v>126</v>
@@ -5253,7 +5253,7 @@
         <v>41</v>
       </c>
       <c r="BA26" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB26" t="n">
         <v>201</v>
@@ -5262,7 +5262,7 @@
         <v>351</v>
       </c>
       <c r="BD26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -5843,10 +5843,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
         <v>3.5</v>
@@ -5855,34 +5855,34 @@
         <v>2.75</v>
       </c>
       <c r="K30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L30" t="n">
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T30" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U30" t="n">
         <v>1.8</v>
@@ -5894,7 +5894,7 @@
         <v>7.5</v>
       </c>
       <c r="X30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -5906,10 +5906,10 @@
         <v>17</v>
       </c>
       <c r="AB30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD30" t="n">
         <v>6.5</v>
@@ -5939,13 +5939,13 @@
         <v>29</v>
       </c>
       <c r="AM30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="n">
         <v>4</v>
       </c>
       <c r="AO30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP30" t="n">
         <v>21</v>
@@ -5960,7 +5960,7 @@
         <v>151</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU30" t="n">
         <v>8</v>
@@ -5975,10 +5975,10 @@
         <v>5.5</v>
       </c>
       <c r="AY30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA30" t="n">
         <v>67</v>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>5</v>
@@ -6216,13 +6216,13 @@
         <v>7.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K32" t="n">
         <v>2.5</v>
       </c>
       <c r="L32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -6255,7 +6255,7 @@
         <v>1.73</v>
       </c>
       <c r="W32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X32" t="n">
         <v>6.5</v>
@@ -6288,16 +6288,16 @@
         <v>351</v>
       </c>
       <c r="AH32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI32" t="n">
         <v>41</v>
       </c>
       <c r="AJ32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK32" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL32" t="n">
         <v>51</v>
@@ -6309,7 +6309,7 @@
         <v>3.25</v>
       </c>
       <c r="AO32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP32" t="n">
         <v>17</v>
@@ -6336,7 +6336,7 @@
         <v>51</v>
       </c>
       <c r="AX32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY32" t="n">
         <v>41</v>
@@ -6351,7 +6351,7 @@
         <v>151</v>
       </c>
       <c r="BC32" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD32" t="n">
         <v>51</v>
@@ -6389,34 +6389,34 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H33" t="n">
         <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
         <v>2.4</v>
       </c>
       <c r="L33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M33" t="n">
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q33" t="n">
         <v>1.7</v>
@@ -6440,7 +6440,7 @@
         <v>7.5</v>
       </c>
       <c r="X33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y33" t="n">
         <v>8.5</v>
@@ -6473,13 +6473,13 @@
         <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ33" t="n">
         <v>21</v>
       </c>
       <c r="AK33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL33" t="n">
         <v>51</v>
@@ -8027,61 +8027,61 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H42" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I42" t="n">
         <v>5.5</v>
       </c>
       <c r="J42" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K42" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N42" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P42" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R42" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V42" t="n">
         <v>1.5</v>
       </c>
-      <c r="T42" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U42" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W42" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X42" t="n">
         <v>6.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z42" t="n">
         <v>12</v>
@@ -8093,7 +8093,7 @@
         <v>41</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD42" t="n">
         <v>7</v>
@@ -8102,13 +8102,13 @@
         <v>23</v>
       </c>
       <c r="AF42" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG42" t="n">
         <v>201</v>
       </c>
       <c r="AH42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI42" t="n">
         <v>26</v>
@@ -8129,22 +8129,22 @@
         <v>3.4</v>
       </c>
       <c r="AO42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS42" t="n">
         <v>251</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU42" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
         <v>6.5</v>
@@ -1511,10 +1511,10 @@
         <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U6" t="n">
         <v>2.63</v>
@@ -1532,7 +1532,7 @@
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
         <v>17</v>
@@ -1547,10 +1547,10 @@
         <v>7.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
@@ -1559,22 +1559,22 @@
         <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
         <v>81</v>
       </c>
       <c r="AL6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO6" t="n">
         <v>8.5</v>
@@ -1592,7 +1592,7 @@
         <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU6" t="n">
         <v>11</v>
@@ -1616,7 +1616,7 @@
         <v>201</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>501</v>
@@ -1660,13 +1660,13 @@
         <v>2.25</v>
       </c>
       <c r="H7" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
         <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>1.83</v>
@@ -1675,16 +1675,16 @@
         <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
         <v>2.88</v>
@@ -1693,16 +1693,16 @@
         <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
         <v>5.5</v>
@@ -1711,7 +1711,7 @@
         <v>9</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
         <v>21</v>
@@ -1741,7 +1741,7 @@
         <v>7.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>15</v>
@@ -1762,22 +1762,22 @@
         <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="n">
         <v>351</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>81</v>
@@ -1798,7 +1798,7 @@
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
         <v>351</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
@@ -2078,10 +2078,10 @@
         <v>11</v>
       </c>
       <c r="Z9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA9" t="n">
         <v>26</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>23</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
@@ -2111,7 +2111,7 @@
         <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2120,7 +2120,7 @@
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO9" t="n">
         <v>17</v>
@@ -2141,7 +2141,7 @@
         <v>2.38</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
@@ -2150,7 +2150,7 @@
         <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY9" t="n">
         <v>17</v>
@@ -2224,7 +2224,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
         <v>1.95</v>
@@ -2421,10 +2421,10 @@
         <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U11" t="n">
         <v>2.1</v>
@@ -2436,7 +2436,7 @@
         <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
         <v>10</v>
@@ -2445,7 +2445,7 @@
         <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
@@ -2463,7 +2463,7 @@
         <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AH11" t="n">
         <v>8</v>
@@ -2475,7 +2475,7 @@
         <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
         <v>34</v>
@@ -2484,10 +2484,10 @@
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
         <v>29</v>
@@ -2502,7 +2502,7 @@
         <v>251</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU11" t="n">
         <v>9</v>
@@ -2931,16 +2931,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
@@ -2979,7 +2979,7 @@
         <v>1.8</v>
       </c>
       <c r="W14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X14" t="n">
         <v>9</v>
@@ -3000,7 +3000,7 @@
         <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
         <v>17</v>
@@ -3015,7 +3015,7 @@
         <v>9.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
         <v>13</v>
@@ -3024,7 +3024,7 @@
         <v>41</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
@@ -8027,16 +8027,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I42" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J42" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
@@ -8045,22 +8045,22 @@
         <v>6.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P42" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R42" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S42" t="n">
         <v>1.53</v>
@@ -8084,7 +8084,7 @@
         <v>9.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA42" t="n">
         <v>17</v>
@@ -8093,10 +8093,10 @@
         <v>41</v>
       </c>
       <c r="AC42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD42" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE42" t="n">
         <v>23</v>
@@ -8108,10 +8108,10 @@
         <v>201</v>
       </c>
       <c r="AH42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ42" t="n">
         <v>19</v>
@@ -8123,19 +8123,19 @@
         <v>51</v>
       </c>
       <c r="AM42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN42" t="n">
         <v>3.4</v>
       </c>
       <c r="AO42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP42" t="n">
         <v>26</v>
       </c>
       <c r="AQ42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR42" t="n">
         <v>67</v>
@@ -8156,7 +8156,7 @@
         <v>51</v>
       </c>
       <c r="AX42" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY42" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1505,10 +1505,10 @@
         <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
         <v>1.57</v>
@@ -1532,7 +1532,7 @@
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
         <v>17</v>
@@ -1547,10 +1547,10 @@
         <v>7.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
@@ -1559,22 +1559,22 @@
         <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
         <v>67</v>
       </c>
-      <c r="AM6" t="n">
-        <v>81</v>
-      </c>
       <c r="AN6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO6" t="n">
         <v>8.5</v>
@@ -1598,13 +1598,13 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
         <v>81</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
@@ -1613,10 +1613,10 @@
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
         <v>501</v>
@@ -1675,10 +1675,10 @@
         <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.62</v>
@@ -1687,10 +1687,10 @@
         <v>2.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
         <v>1.67</v>
@@ -2203,73 +2203,73 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
         <v>7</v>
       </c>
       <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
         <v>10</v>
       </c>
-      <c r="Y10" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA10" t="n">
         <v>21</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -2281,22 +2281,22 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
         <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
@@ -2305,13 +2305,13 @@
         <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
         <v>67</v>
@@ -2320,22 +2320,22 @@
         <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
         <v>126</v>
       </c>
       <c r="AX10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
         <v>29</v>
@@ -2347,7 +2347,7 @@
         <v>81</v>
       </c>
       <c r="BC10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD10" t="n">
         <v>126</v>
@@ -8027,16 +8027,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H42" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J42" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
@@ -8069,10 +8069,10 @@
         <v>2.38</v>
       </c>
       <c r="U42" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V42" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W42" t="n">
         <v>5</v>
@@ -8084,7 +8084,7 @@
         <v>9.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA42" t="n">
         <v>17</v>
@@ -8096,7 +8096,7 @@
         <v>7</v>
       </c>
       <c r="AD42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE42" t="n">
         <v>23</v>
@@ -8111,7 +8111,7 @@
         <v>11</v>
       </c>
       <c r="AI42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ42" t="n">
         <v>19</v>
@@ -8135,7 +8135,7 @@
         <v>26</v>
       </c>
       <c r="AQ42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR42" t="n">
         <v>67</v>
@@ -8156,7 +8156,7 @@
         <v>51</v>
       </c>
       <c r="AX42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY42" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-30.xlsx
@@ -1681,10 +1681,10 @@
         <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
         <v>3.1</v>
